--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7754</x:v>
+        <x:v>7755</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4615</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14859</x:v>
+        <x:v>14860</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8686</x:v>
+        <x:v>8687</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5386</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17067</x:v>
+        <x:v>17068</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -981,10 +981,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>20</x:v>
@@ -999,7 +999,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>613</x:v>
+        <x:v>615</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>20</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5624</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2871</x:v>
+        <x:v>2872</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>200</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1691</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11057</x:v>
+        <x:v>11058</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5943</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2944</x:v>
+        <x:v>2945</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>214</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1835</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11641</x:v>
+        <x:v>11642</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,13 +1390,13 @@
         <x:v>1140</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>5</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2457</x:v>
+        <x:v>2459</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,13 +1448,13 @@
         <x:v>1173</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>877</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>5</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2579</x:v>
+        <x:v>2581</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1808,10 +1808,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1301</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15153</x:v>
+        <x:v>15154</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1866,10 +1866,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1476</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16775</x:v>
+        <x:v>16776</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7755</x:v>
+        <x:v>7756</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4615</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14860</x:v>
+        <x:v>14861</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8687</x:v>
+        <x:v>8688</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5386</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17068</x:v>
+        <x:v>17069</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,16 +894,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>3</x:v>
@@ -912,7 +912,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1406</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,16 +952,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>833</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>3</x:v>
@@ -970,7 +970,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1609</x:v>
+        <x:v>1613</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>146</x:v>
@@ -999,7 +999,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>148</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,13 +1155,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5624</x:v>
+        <x:v>5627</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2872</x:v>
+        <x:v>2873</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>650</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1691</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11058</x:v>
+        <x:v>11064</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,13 +1213,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5943</x:v>
+        <x:v>5946</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2945</x:v>
+        <x:v>2946</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>683</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>1836</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11642</x:v>
+        <x:v>11648</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1140</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>808</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2459</x:v>
+        <x:v>2460</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>878</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2581</x:v>
+        <x:v>2582</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7754</x:v>
+        <x:v>7758</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5067</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15154</x:v>
+        <x:v>15158</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8451</x:v>
+        <x:v>8455</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5740</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16776</x:v>
+        <x:v>16780</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>4</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>9</x:v>
@@ -2043,7 +2043,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2144,7 +2144,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>9</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2208,7 +2208,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>6</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2266,7 +2266,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>6</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>953</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11064</x:v>
+        <x:v>11065</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1836</x:v>
+        <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11648</x:v>
+        <x:v>11649</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1141</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2460</x:v>
+        <x:v>2461</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1174</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2582</x:v>
+        <x:v>2583</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7758</x:v>
+        <x:v>7759</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5067</x:v>
+        <x:v>5068</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15158</x:v>
+        <x:v>15160</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8455</x:v>
+        <x:v>8456</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5740</x:v>
+        <x:v>5741</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16780</x:v>
+        <x:v>16782</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>171</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>351</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>857</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7756</x:v>
+        <x:v>7757</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4615</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14861</x:v>
+        <x:v>14862</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8688</x:v>
+        <x:v>8689</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5386</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17069</x:v>
+        <x:v>17070</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5627</x:v>
+        <x:v>5628</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2873</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11065</x:v>
+        <x:v>11066</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5946</x:v>
+        <x:v>5947</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2946</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11649</x:v>
+        <x:v>11650</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7759</x:v>
+        <x:v>7760</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5068</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15160</x:v>
+        <x:v>15161</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8456</x:v>
+        <x:v>8457</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5741</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16782</x:v>
+        <x:v>16783</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>171</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>351</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>858</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2144,7 +2144,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>9</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>766</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>431</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>954</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2373,10 +2373,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1119</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2340</x:v>
+        <x:v>2342</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,10 +2431,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1332</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2685</x:v>
+        <x:v>2687</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7757</x:v>
+        <x:v>7762</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4615</x:v>
+        <x:v>4617</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14862</x:v>
+        <x:v>14870</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,10 +749,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>42</x:v>
@@ -767,7 +767,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2208</x:v>
+        <x:v>2210</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8689</x:v>
+        <x:v>8695</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5386</x:v>
+        <x:v>5389</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1744</x:v>
+        <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17070</x:v>
+        <x:v>17080</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -897,7 +897,7 @@
         <x:v>721</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1410</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>834</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1613</x:v>
+        <x:v>1616</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,10 +981,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>20</x:v>
@@ -999,7 +999,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>20</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>429</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1601</x:v>
+        <x:v>1603</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>547</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2028</x:v>
+        <x:v>2030</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5628</x:v>
+        <x:v>5627</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2873</x:v>
+        <x:v>2875</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11066</x:v>
+        <x:v>11067</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5947</x:v>
+        <x:v>5946</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2946</x:v>
+        <x:v>2948</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11650</x:v>
+        <x:v>11651</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>809</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2461</x:v>
+        <x:v>2464</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1174</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>879</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2583</x:v>
+        <x:v>2586</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,16 +1793,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7760</x:v>
+        <x:v>7765</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5068</x:v>
+        <x:v>5075</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>31</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15161</x:v>
+        <x:v>15174</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,16 +1851,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8457</x:v>
+        <x:v>8462</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5741</x:v>
+        <x:v>5748</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>797</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>31</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16783</x:v>
+        <x:v>16796</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>2</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1941,7 +1941,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>34</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>861</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2231,7 +2231,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>3</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>955</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>690</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2388,10 +2388,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2342</x:v>
+        <x:v>2344</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>20</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1333</x:v>
+        <x:v>1335</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2446,10 +2446,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2687</x:v>
+        <x:v>2690</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7762</x:v>
+        <x:v>7767</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4617</x:v>
+        <x:v>4619</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -738,7 +738,7 @@
         <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14870</x:v>
+        <x:v>14877</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8695</x:v>
+        <x:v>8700</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5389</x:v>
+        <x:v>5391</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17080</x:v>
+        <x:v>17087</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>439</x:v>
@@ -909,10 +909,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1413</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>834</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>496</x:v>
@@ -967,10 +967,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1616</x:v>
+        <x:v>1618</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>147</x:v>
@@ -999,7 +999,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>149</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,16 +1155,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5627</x:v>
+        <x:v>5628</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2875</x:v>
+        <x:v>2876</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11067</x:v>
+        <x:v>11071</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,16 +1213,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5946</x:v>
+        <x:v>5947</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2948</x:v>
+        <x:v>2949</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11651</x:v>
+        <x:v>11655</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>809</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2464</x:v>
+        <x:v>2466</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>879</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2586</x:v>
+        <x:v>2588</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7765</x:v>
+        <x:v>7773</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5075</x:v>
+        <x:v>5078</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15174</x:v>
+        <x:v>15185</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8462</x:v>
+        <x:v>8470</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5748</x:v>
+        <x:v>5751</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16796</x:v>
+        <x:v>16807</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>198</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>812</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>31</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>229</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>958</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7767</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4619</x:v>
+        <x:v>4618</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -738,7 +738,7 @@
         <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14877</x:v>
+        <x:v>14876</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8700</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5391</x:v>
+        <x:v>5390</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17087</x:v>
+        <x:v>17086</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>429</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1603</x:v>
+        <x:v>1604</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>547</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2030</x:v>
+        <x:v>2031</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5628</x:v>
+        <x:v>5627</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2876</x:v>
+        <x:v>2877</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5947</x:v>
+        <x:v>5946</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2949</x:v>
+        <x:v>2950</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7773</x:v>
+        <x:v>7771</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5078</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1302</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15185</x:v>
+        <x:v>15183</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8470</x:v>
+        <x:v>8468</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5751</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1477</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16807</x:v>
+        <x:v>16805</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7767</x:v>
+        <x:v>7768</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4618</x:v>
@@ -738,7 +738,7 @@
         <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14876</x:v>
+        <x:v>14877</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8700</x:v>
+        <x:v>8701</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5390</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17086</x:v>
+        <x:v>17087</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>439</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1415</x:v>
+        <x:v>1416</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>835</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>496</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1618</x:v>
+        <x:v>1619</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5627</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2877</x:v>
+        <x:v>2878</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11071</x:v>
+        <x:v>11072</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5946</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2950</x:v>
+        <x:v>2951</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11655</x:v>
+        <x:v>11656</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>809</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2466</x:v>
+        <x:v>2467</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1177</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>879</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2588</x:v>
+        <x:v>2589</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7771</x:v>
+        <x:v>7769</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5078</x:v>
+        <x:v>5081</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
@@ -1805,13 +1805,13 @@
         <x:v>760</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15183</x:v>
+        <x:v>15193</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1837,10 +1837,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1622</x:v>
+        <x:v>1624</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8468</x:v>
+        <x:v>8466</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5751</x:v>
+        <x:v>5755</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
@@ -1863,13 +1863,13 @@
         <x:v>798</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1477</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16805</x:v>
+        <x:v>16817</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>504</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1486</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>712</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1783</x:v>
+        <x:v>1785</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7768</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4618</x:v>
+        <x:v>4619</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -738,7 +738,7 @@
         <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14877</x:v>
+        <x:v>14878</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8701</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5390</x:v>
+        <x:v>5391</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17087</x:v>
+        <x:v>17088</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5627</x:v>
+        <x:v>5629</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2878</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11072</x:v>
+        <x:v>11074</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5946</x:v>
+        <x:v>5948</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2951</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11656</x:v>
+        <x:v>11658</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>809</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2467</x:v>
+        <x:v>2469</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1178</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>879</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2589</x:v>
+        <x:v>2591</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7769</x:v>
+        <x:v>7771</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5081</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1310</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15193</x:v>
+        <x:v>15195</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8466</x:v>
+        <x:v>8468</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5755</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1486</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16817</x:v>
+        <x:v>16819</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1121</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2344</x:v>
+        <x:v>2345</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1335</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2690</x:v>
+        <x:v>2691</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,16 +720,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7768</x:v>
+        <x:v>7769</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4619</x:v>
+        <x:v>4618</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>31</x:v>
@@ -738,7 +738,7 @@
         <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14878</x:v>
+        <x:v>14879</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,16 +778,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8701</x:v>
+        <x:v>8702</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5391</x:v>
+        <x:v>5390</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17088</x:v>
+        <x:v>17089</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1068,13 +1068,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>871</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>429</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>64</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1604</x:v>
+        <x:v>1606</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>118</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>547</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>72</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2031</x:v>
+        <x:v>2034</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5629</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2878</x:v>
+        <x:v>2877</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11074</x:v>
+        <x:v>11073</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5948</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2951</x:v>
+        <x:v>2950</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11658</x:v>
+        <x:v>11657</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1147</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>809</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2469</x:v>
+        <x:v>2470</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1180</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>879</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2591</x:v>
+        <x:v>2592</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7771</x:v>
+        <x:v>7772</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5081</x:v>
+        <x:v>5082</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1310</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15195</x:v>
+        <x:v>15197</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8468</x:v>
+        <x:v>8469</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5755</x:v>
+        <x:v>5756</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1486</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16819</x:v>
+        <x:v>16821</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>31</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>229</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7769</x:v>
+        <x:v>7773</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4618</x:v>
+        <x:v>4620</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1429</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14879</x:v>
+        <x:v>14884</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>772</x:v>
@@ -767,7 +767,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2210</x:v>
+        <x:v>2211</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8702</x:v>
+        <x:v>8707</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5390</x:v>
+        <x:v>5392</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1745</x:v>
+        <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17089</x:v>
+        <x:v>17095</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1068,10 +1068,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1606</x:v>
+        <x:v>1608</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>118</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1087</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2034</x:v>
+        <x:v>2037</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5629</x:v>
+        <x:v>5628</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2877</x:v>
+        <x:v>2879</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11073</x:v>
+        <x:v>11074</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5948</x:v>
+        <x:v>5947</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2950</x:v>
+        <x:v>2952</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11657</x:v>
+        <x:v>11658</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2470</x:v>
+        <x:v>2473</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1181</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>879</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2592</x:v>
+        <x:v>2595</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7772</x:v>
+        <x:v>7774</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5082</x:v>
+        <x:v>5087</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1310</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15197</x:v>
+        <x:v>15204</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1625</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8469</x:v>
+        <x:v>8471</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5756</x:v>
+        <x:v>5762</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1486</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16821</x:v>
+        <x:v>16829</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>198</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>229</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>2346</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1335</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2691</x:v>
+        <x:v>2692</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -897,7 +897,7 @@
         <x:v>723</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1416</x:v>
+        <x:v>1417</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>836</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1619</x:v>
+        <x:v>1620</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>811</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2473</x:v>
+        <x:v>2475</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1182</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>881</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2595</x:v>
+        <x:v>2597</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7774</x:v>
+        <x:v>7775</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5087</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15204</x:v>
+        <x:v>15206</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8471</x:v>
+        <x:v>8472</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5762</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1486</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16829</x:v>
+        <x:v>16831</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5628</x:v>
+        <x:v>5630</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2879</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11074</x:v>
+        <x:v>11077</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5947</x:v>
+        <x:v>5949</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2952</x:v>
+        <x:v>2953</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11658</x:v>
+        <x:v>11661</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1184</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>881</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1802,7 +1802,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>32</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1311</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15206</x:v>
+        <x:v>15207</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1860,7 +1860,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>798</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1487</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16831</x:v>
+        <x:v>16832</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>198</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>815</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>229</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>960</x:v>
+        <x:v>962</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7773</x:v>
+        <x:v>7777</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4620</x:v>
@@ -729,7 +729,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>31</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14884</x:v>
+        <x:v>14889</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <x:v>934</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>42</x:v>
@@ -767,7 +767,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2211</x:v>
+        <x:v>2212</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,16 +778,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8707</x:v>
+        <x:v>8711</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5392</x:v>
+        <x:v>5393</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17095</x:v>
+        <x:v>17101</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>440</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1417</x:v>
+        <x:v>1420</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>836</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>497</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1620</x:v>
+        <x:v>1623</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5630</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2882</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11077</x:v>
+        <x:v>11079</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5949</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2953</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11661</x:v>
+        <x:v>11663</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2475</x:v>
+        <x:v>2477</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1185</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2597</x:v>
+        <x:v>2599</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7775</x:v>
+        <x:v>7776</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5087</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15207</x:v>
+        <x:v>15209</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8472</x:v>
+        <x:v>8473</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5762</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16832</x:v>
+        <x:v>16834</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>171</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>354</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>861</x:v>
+        <x:v>860</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>554</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2144,7 +2144,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>9</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>198</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>229</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>962</x:v>
+        <x:v>964</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1122</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2347</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>20</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1336</x:v>
+        <x:v>1338</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2692</x:v>
+        <x:v>2694</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7777</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4620</x:v>
+        <x:v>4621</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14889</x:v>
+        <x:v>14890</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8711</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5393</x:v>
+        <x:v>5394</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17101</x:v>
+        <x:v>17102</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>57</x:v>
@@ -941,7 +941,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>497</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1623</x:v>
+        <x:v>1624</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5630</x:v>
+        <x:v>5633</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2882</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11079</x:v>
+        <x:v>11082</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5949</x:v>
+        <x:v>5952</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2955</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11663</x:v>
+        <x:v>11666</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7776</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5087</x:v>
+        <x:v>5088</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>241</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1312</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15209</x:v>
+        <x:v>15210</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8473</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5762</x:v>
+        <x:v>5763</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>280</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1488</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16834</x:v>
+        <x:v>16835</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1123</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2347</x:v>
+        <x:v>2348</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2694</x:v>
+        <x:v>2695</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1158,7 +1158,7 @@
         <x:v>5633</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2882</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11082</x:v>
+        <x:v>11081</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5952</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11666</x:v>
+        <x:v>11665</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -923,7 +923,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>57</x:v>
@@ -941,7 +941,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>840</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>497</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1623</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -984,10 +984,10 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>15</x:v>
@@ -996,10 +996,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1042,10 +1042,10 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>15</x:v>
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>118</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1089</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>548</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2037</x:v>
+        <x:v>2038</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7777</x:v>
+        <x:v>7783</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4621</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14890</x:v>
+        <x:v>14896</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
@@ -758,7 +758,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>6</x:v>
@@ -767,7 +767,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2212</x:v>
+        <x:v>2214</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8711</x:v>
+        <x:v>8718</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5394</x:v>
@@ -787,7 +787,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17102</x:v>
+        <x:v>17110</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,22 +1155,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5633</x:v>
+        <x:v>5631</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1693</x:v>
+        <x:v>1695</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
         <x:v>11081</x:v>
@@ -1213,22 +1213,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5952</x:v>
+        <x:v>5950</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2953</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1837</x:v>
+        <x:v>1839</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
         <x:v>11665</x:v>
@@ -1793,25 +1793,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7776</x:v>
+        <x:v>7778</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5088</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1312</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15210</x:v>
+        <x:v>15215</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,25 +1851,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8473</x:v>
+        <x:v>8475</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5763</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>799</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16835</x:v>
+        <x:v>16840</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>438</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>523</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>964</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>10</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>59</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2348</x:v>
+        <x:v>2349</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1339</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2695</x:v>
+        <x:v>2696</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,13 +723,13 @@
         <x:v>7783</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4621</x:v>
+        <x:v>4623</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>31</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14896</x:v>
+        <x:v>14899</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,13 +781,13 @@
         <x:v>8718</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5394</x:v>
+        <x:v>5396</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>364</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17110</x:v>
+        <x:v>17113</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5631</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11081</x:v>
+        <x:v>11082</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5950</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2953</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1839</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11665</x:v>
+        <x:v>11666</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1153</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2477</x:v>
+        <x:v>2478</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1186</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>881</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2599</x:v>
+        <x:v>2600</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7778</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5088</x:v>
+        <x:v>5087</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15215</x:v>
+        <x:v>15214</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8475</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5763</x:v>
+        <x:v>5762</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16840</x:v>
+        <x:v>16839</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>20</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1340</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2696</x:v>
+        <x:v>2695</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,16 +720,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7783</x:v>
+        <x:v>7787</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4623</x:v>
+        <x:v>4622</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>31</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14899</x:v>
+        <x:v>14902</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
@@ -767,7 +767,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2214</x:v>
+        <x:v>2216</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,16 +778,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8718</x:v>
+        <x:v>8724</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5396</x:v>
+        <x:v>5395</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17113</x:v>
+        <x:v>17118</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5631</x:v>
+        <x:v>5636</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2879</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11082</x:v>
+        <x:v>11085</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5950</x:v>
+        <x:v>5955</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2952</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1839</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11666</x:v>
+        <x:v>11669</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1153</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>812</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2478</x:v>
+        <x:v>2479</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>882</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2600</x:v>
+        <x:v>2601</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7778</x:v>
+        <x:v>7780</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5087</x:v>
+        <x:v>5089</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15214</x:v>
+        <x:v>15218</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8475</x:v>
+        <x:v>8477</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5762</x:v>
+        <x:v>5764</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16839</x:v>
+        <x:v>16843</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>199</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2243,10 +2243,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>230</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
         <x:v>965</x:v>
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>504</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>713</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1787</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,13 +2376,13 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>4</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2349</x:v>
+        <x:v>2351</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2417,10 +2417,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H66" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -2434,22 +2434,22 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1339</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2695</x:v>
+        <x:v>2698</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -546,10 +546,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>2</x:v>
@@ -561,10 +561,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>2</x:v>
@@ -619,10 +619,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7787</x:v>
+        <x:v>7789</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4622</x:v>
+        <x:v>4623</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14902</x:v>
+        <x:v>14905</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8724</x:v>
+        <x:v>8726</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5395</x:v>
+        <x:v>5396</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17118</x:v>
+        <x:v>17121</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>440</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1420</x:v>
+        <x:v>1421</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>497</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1623</x:v>
+        <x:v>1624</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5636</x:v>
+        <x:v>5638</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2879</x:v>
+        <x:v>2882</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11085</x:v>
+        <x:v>11090</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5955</x:v>
+        <x:v>5957</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2952</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1839</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11669</x:v>
+        <x:v>11674</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1154</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2479</x:v>
+        <x:v>2482</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2601</x:v>
+        <x:v>2604</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7780</x:v>
+        <x:v>7781</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5089</x:v>
+        <x:v>5100</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1313</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15218</x:v>
+        <x:v>15231</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8477</x:v>
+        <x:v>8478</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5764</x:v>
+        <x:v>5775</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16843</x:v>
+        <x:v>16856</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1886,7 +1886,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
         <x:v>42</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1915,7 +1915,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
         <x:v>20</x:v>
@@ -1924,10 +1924,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1944,7 +1944,7 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
         <x:v>62</x:v>
@@ -1953,10 +1953,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>860</x:v>
+        <x:v>863</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1126</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2351</x:v>
+        <x:v>2352</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1340</x:v>
+        <x:v>1341</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2698</x:v>
+        <x:v>2699</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -546,7 +546,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>24</x:v>
@@ -564,7 +564,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,7 +604,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>24</x:v>
@@ -622,7 +622,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -723,7 +723,7 @@
         <x:v>7789</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4623</x:v>
+        <x:v>4622</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14905</x:v>
+        <x:v>14904</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8726</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5396</x:v>
+        <x:v>5395</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17121</x:v>
+        <x:v>17120</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -996,10 +996,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1608</x:v>
+        <x:v>1610</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1090</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>548</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2038</x:v>
+        <x:v>2040</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5638</x:v>
+        <x:v>5640</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2882</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11090</x:v>
+        <x:v>11091</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5957</x:v>
+        <x:v>5959</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1839</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11674</x:v>
+        <x:v>11675</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1155</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>813</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2482</x:v>
+        <x:v>2483</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>883</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2604</x:v>
+        <x:v>2605</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7781</x:v>
+        <x:v>7788</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5100</x:v>
+        <x:v>5105</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1314</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15231</x:v>
+        <x:v>15243</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>675</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1625</x:v>
+        <x:v>1629</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8478</x:v>
+        <x:v>8489</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5775</x:v>
+        <x:v>5780</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1490</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16856</x:v>
+        <x:v>16872</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>4</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>9</x:v>
@@ -2043,7 +2043,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1127</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2352</x:v>
+        <x:v>2353</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>763</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1341</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2699</x:v>
+        <x:v>2700</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7789</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4622</x:v>
+        <x:v>4625</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14904</x:v>
+        <x:v>14907</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,10 +749,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>42</x:v>
@@ -764,7 +764,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
         <x:v>2216</x:v>
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8726</x:v>
+        <x:v>8727</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5395</x:v>
+        <x:v>5396</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1744</x:v>
+        <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17120</x:v>
+        <x:v>17123</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,10 +894,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1421</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1</x:v>
@@ -941,7 +941,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,10 +952,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>840</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1628</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>148</x:v>
@@ -999,7 +999,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>150</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1083,10 +1083,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1610</x:v>
+        <x:v>1613</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1090</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2040</x:v>
+        <x:v>2043</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5640</x:v>
+        <x:v>5643</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2881</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1695</x:v>
+        <x:v>1697</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11091</x:v>
+        <x:v>11096</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5959</x:v>
+        <x:v>5962</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2954</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1839</x:v>
+        <x:v>1841</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11675</x:v>
+        <x:v>11680</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2483</x:v>
+        <x:v>2491</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1189</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>883</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2605</x:v>
+        <x:v>2613</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7788</x:v>
+        <x:v>7793</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5105</x:v>
+        <x:v>5115</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1314</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15243</x:v>
+        <x:v>15261</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1629</x:v>
+        <x:v>1631</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,25 +1851,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8489</x:v>
+        <x:v>8494</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5780</x:v>
+        <x:v>5792</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>800</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1490</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16872</x:v>
+        <x:v>16892</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2112,10 +2112,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2144,7 +2144,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>9</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,10 +2170,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>569</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>437</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>199</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>820</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>230</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>968</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>691</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1128</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2353</x:v>
+        <x:v>2355</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1342</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2700</x:v>
+        <x:v>2702</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5643</x:v>
+        <x:v>5645</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2883</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1697</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11096</x:v>
+        <x:v>11100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5962</x:v>
+        <x:v>5964</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2956</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1841</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11680</x:v>
+        <x:v>11684</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7793</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5115</x:v>
+        <x:v>5119</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1315</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15261</x:v>
+        <x:v>15265</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8494</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5792</x:v>
+        <x:v>5796</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1491</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16892</x:v>
+        <x:v>16896</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2144,7 +2144,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>9</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2373,10 +2373,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2355</x:v>
+        <x:v>2358</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,10 +2431,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14907</x:v>
+        <x:v>14906</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1745</x:v>
+        <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17123</x:v>
+        <x:v>17122</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>148</x:v>
@@ -999,7 +999,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>150</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5645</x:v>
+        <x:v>5644</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2883</x:v>
+        <x:v>2884</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5964</x:v>
+        <x:v>5963</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2956</x:v>
+        <x:v>2957</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1706,7 +1706,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>52</x:v>
@@ -1724,7 +1724,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>52</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1315</x:v>
+        <x:v>1317</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15265</x:v>
+        <x:v>15267</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1491</x:v>
+        <x:v>1493</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16896</x:v>
+        <x:v>16898</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2231,7 +2231,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>3</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
         <x:v>148</x:v>
@@ -2260,7 +2260,7 @@
         <x:v>525</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
         <x:v>968</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7789</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4625</x:v>
+        <x:v>4626</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1427</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14906</x:v>
+        <x:v>14907</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8727</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5396</x:v>
+        <x:v>5397</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17122</x:v>
+        <x:v>17123</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7793</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5119</x:v>
+        <x:v>5120</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1317</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15267</x:v>
+        <x:v>15268</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8494</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5796</x:v>
+        <x:v>5797</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1493</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16898</x:v>
+        <x:v>16899</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7789</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4626</x:v>
+        <x:v>4625</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1427</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14907</x:v>
+        <x:v>14906</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8727</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5397</x:v>
+        <x:v>5396</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1744</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17123</x:v>
+        <x:v>17122</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>442</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1424</x:v>
+        <x:v>1423</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>500</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1627</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -2002,7 +2002,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
         <x:v>1</x:v>
@@ -2014,7 +2014,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2031,7 +2031,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
         <x:v>3</x:v>
@@ -2043,7 +2043,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2214,10 +2214,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2272,10 +2272,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>968</x:v>
+        <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>504</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1486</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>713</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1787</x:v>
+        <x:v>1784</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -987,7 +987,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>15</x:v>
@@ -999,7 +999,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1045,7 +1045,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>15</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5644</x:v>
+        <x:v>5646</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2884</x:v>
+        <x:v>2887</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1697</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11100</x:v>
+        <x:v>11105</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5963</x:v>
+        <x:v>5965</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2957</x:v>
+        <x:v>2960</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1841</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11684</x:v>
+        <x:v>11689</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7793</x:v>
+        <x:v>7794</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5120</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1317</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15268</x:v>
+        <x:v>15269</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8494</x:v>
+        <x:v>8495</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5797</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1493</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16899</x:v>
+        <x:v>16900</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1159</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>815</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2491</x:v>
+        <x:v>2492</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>885</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2613</x:v>
+        <x:v>2614</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7794</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5120</x:v>
+        <x:v>5121</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1317</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15269</x:v>
+        <x:v>15270</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8495</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5797</x:v>
+        <x:v>5798</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1493</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16900</x:v>
+        <x:v>16901</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -984,7 +984,7 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>22</x:v>
@@ -999,7 +999,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1042,7 +1042,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>22</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5646</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2887</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1697</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11105</x:v>
+        <x:v>11104</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5965</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2960</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1841</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11689</x:v>
+        <x:v>11688</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1160</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>815</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2492</x:v>
+        <x:v>2493</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>885</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2614</x:v>
+        <x:v>2615</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7794</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5121</x:v>
+        <x:v>5124</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1317</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15270</x:v>
+        <x:v>15273</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8495</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5798</x:v>
+        <x:v>5801</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1493</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16901</x:v>
+        <x:v>16904</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>13</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7789</x:v>
+        <x:v>7795</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4625</x:v>
+        <x:v>4632</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1427</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14906</x:v>
+        <x:v>14920</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8727</x:v>
+        <x:v>8733</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5396</x:v>
+        <x:v>5403</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1744</x:v>
+        <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17122</x:v>
+        <x:v>17136</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -897,7 +897,7 @@
         <x:v>727</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1423</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>840</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1627</x:v>
+        <x:v>1628</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>433</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1613</x:v>
+        <x:v>1614</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>551</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2043</x:v>
+        <x:v>2044</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,25 +1155,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5646</x:v>
+        <x:v>5645</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2888</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1697</x:v>
+        <x:v>1698</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11104</x:v>
+        <x:v>11105</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,25 +1213,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5965</x:v>
+        <x:v>5964</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2959</x:v>
+        <x:v>2961</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1841</x:v>
+        <x:v>1842</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11688</x:v>
+        <x:v>11689</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1161</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2493</x:v>
+        <x:v>2495</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2615</x:v>
+        <x:v>2617</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7794</x:v>
+        <x:v>7804</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5124</x:v>
+        <x:v>5130</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1317</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15273</x:v>
+        <x:v>15290</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8495</x:v>
+        <x:v>8505</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5801</x:v>
+        <x:v>5807</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1493</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16904</x:v>
+        <x:v>16921</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2199,10 +2199,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>823</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,10 +2257,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>969</x:v>
+        <x:v>971</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2376,13 +2376,13 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1130</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>4</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2358</x:v>
+        <x:v>2359</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,13 +2434,13 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1344</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
         <x:v>5</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7795</x:v>
+        <x:v>7796</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4632</x:v>
+        <x:v>4633</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14920</x:v>
+        <x:v>14922</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8733</x:v>
+        <x:v>8734</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5403</x:v>
+        <x:v>5404</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17136</x:v>
+        <x:v>17138</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>874</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1614</x:v>
+        <x:v>1615</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1091</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2044</x:v>
+        <x:v>2045</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,22 +1155,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5645</x:v>
+        <x:v>5647</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2888</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1698</x:v>
+        <x:v>1699</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
         <x:v>11105</x:v>
@@ -1213,22 +1213,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5964</x:v>
+        <x:v>5966</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2961</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1842</x:v>
+        <x:v>1843</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
         <x:v>11689</x:v>
@@ -1796,7 +1796,7 @@
         <x:v>7804</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5130</x:v>
+        <x:v>5131</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15290</x:v>
+        <x:v>15291</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8505</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5807</x:v>
+        <x:v>5808</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16921</x:v>
+        <x:v>16922</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>200</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>823</x:v>
+        <x:v>824</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>232</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2292,7 +2292,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
         <x:v>76</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1486</x:v>
+        <x:v>1487</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2350,7 +2350,7 @@
         <x:v>713</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F64" s="1" t="n">
         <x:v>86</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1784</x:v>
+        <x:v>1785</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1132</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2359</x:v>
+        <x:v>2358</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1346</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7796</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4633</x:v>
+        <x:v>4632</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14922</x:v>
+        <x:v>14921</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8734</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5404</x:v>
+        <x:v>5403</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17138</x:v>
+        <x:v>17137</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,13 +1155,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5647</x:v>
+        <x:v>5627</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>650</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1699</x:v>
+        <x:v>1701</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11105</x:v>
+        <x:v>11080</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,13 +1213,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5966</x:v>
+        <x:v>5946</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2959</x:v>
+        <x:v>2953</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>683</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1843</x:v>
+        <x:v>1845</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11689</x:v>
+        <x:v>11664</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7804</x:v>
+        <x:v>7803</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5131</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15291</x:v>
+        <x:v>15290</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1631</x:v>
+        <x:v>1632</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8505</x:v>
+        <x:v>8504</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5808</x:v>
+        <x:v>5809</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -2376,7 +2376,7 @@
         <x:v>693</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2358</x:v>
+        <x:v>2357</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>765</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2704</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7796</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4632</x:v>
+        <x:v>4633</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14921</x:v>
+        <x:v>14922</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8734</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5403</x:v>
+        <x:v>5404</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17137</x:v>
+        <x:v>17138</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5627</x:v>
+        <x:v>5619</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2880</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1701</x:v>
+        <x:v>1700</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11080</x:v>
+        <x:v>11071</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5946</x:v>
+        <x:v>5938</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2953</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1845</x:v>
+        <x:v>1844</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11664</x:v>
+        <x:v>11655</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7803</x:v>
+        <x:v>7802</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5131</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15290</x:v>
+        <x:v>15289</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8504</x:v>
+        <x:v>8503</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5809</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16922</x:v>
+        <x:v>16921</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>171</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>354</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>862</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>200</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>825</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>232</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>972</x:v>
+        <x:v>973</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -984,10 +984,10 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>15</x:v>
@@ -996,10 +996,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1042,10 +1042,10 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>15</x:v>
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,16 +1155,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5619</x:v>
+        <x:v>5623</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2882</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1700</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11071</x:v>
+        <x:v>11078</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,16 +1213,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5938</x:v>
+        <x:v>5942</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2953</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1844</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11655</x:v>
+        <x:v>11662</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1162</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>816</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2495</x:v>
+        <x:v>2497</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1195</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>886</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2617</x:v>
+        <x:v>2619</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7802</x:v>
+        <x:v>7801</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5131</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15289</x:v>
+        <x:v>15288</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1632</x:v>
+        <x:v>1633</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8503</x:v>
+        <x:v>8502</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5809</x:v>
+        <x:v>5810</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1886,7 +1886,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
         <x:v>42</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1944,7 +1944,7 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
         <x:v>62</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>862</x:v>
+        <x:v>863</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>504</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>713</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7796</x:v>
+        <x:v>7797</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4633</x:v>
+        <x:v>4634</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14922</x:v>
+        <x:v>14924</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8734</x:v>
+        <x:v>8735</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5404</x:v>
+        <x:v>5405</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17138</x:v>
+        <x:v>17140</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5623</x:v>
+        <x:v>5625</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2882</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1700</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11078</x:v>
+        <x:v>11080</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5942</x:v>
+        <x:v>5944</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2955</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1844</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11662</x:v>
+        <x:v>11664</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1164</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2497</x:v>
+        <x:v>2498</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1197</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2619</x:v>
+        <x:v>2620</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7801</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5131</x:v>
+        <x:v>5132</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15288</x:v>
+        <x:v>15289</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8502</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5810</x:v>
+        <x:v>5811</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16921</x:v>
+        <x:v>16922</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2388,10 +2388,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2357</x:v>
+        <x:v>2358</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2446,10 +2446,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>874</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>434</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1615</x:v>
+        <x:v>1614</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>552</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2045</x:v>
+        <x:v>2044</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5625</x:v>
+        <x:v>5623</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2882</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1700</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11080</x:v>
+        <x:v>11078</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5944</x:v>
+        <x:v>5942</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2955</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1844</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11664</x:v>
+        <x:v>11662</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1164</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2498</x:v>
+        <x:v>2499</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1197</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>887</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2620</x:v>
+        <x:v>2621</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7801</x:v>
+        <x:v>7802</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5132</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15289</x:v>
+        <x:v>15290</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1633</x:v>
+        <x:v>1634</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8502</x:v>
+        <x:v>8503</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5811</x:v>
+        <x:v>5812</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16922</x:v>
+        <x:v>16924</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7797</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4634</x:v>
+        <x:v>4635</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14924</x:v>
+        <x:v>14925</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8735</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5405</x:v>
+        <x:v>5406</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17140</x:v>
+        <x:v>17141</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>434</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1614</x:v>
+        <x:v>1616</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>552</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2044</x:v>
+        <x:v>2046</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2499</x:v>
+        <x:v>2501</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1197</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2621</x:v>
+        <x:v>2623</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>443</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>973</x:v>
+        <x:v>974</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1158,7 +1158,7 @@
         <x:v>5623</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2882</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1700</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11078</x:v>
+        <x:v>11076</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5942</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2953</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1844</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11662</x:v>
+        <x:v>11660</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1970,7 +1970,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
         <x:v>5</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2028,7 +2028,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>6</x:v>
@@ -2043,7 +2043,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -984,7 +984,7 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>23</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1042,7 +1042,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>23</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5623</x:v>
+        <x:v>5624</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2882</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1700</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11076</x:v>
+        <x:v>11079</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5942</x:v>
+        <x:v>5943</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2953</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1844</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11660</x:v>
+        <x:v>11663</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7802</x:v>
+        <x:v>7803</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5132</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15290</x:v>
+        <x:v>15291</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8503</x:v>
+        <x:v>8504</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5812</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16924</x:v>
+        <x:v>16925</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7797</x:v>
+        <x:v>7798</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4635</x:v>
+        <x:v>4637</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14925</x:v>
+        <x:v>14928</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <x:v>938</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>42</x:v>
@@ -767,7 +767,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2216</x:v>
+        <x:v>2217</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8735</x:v>
+        <x:v>8736</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5406</x:v>
+        <x:v>5409</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1745</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17141</x:v>
+        <x:v>17145</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5624</x:v>
+        <x:v>5625</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2882</x:v>
+        <x:v>2884</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1700</x:v>
+        <x:v>1701</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11079</x:v>
+        <x:v>11083</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5943</x:v>
+        <x:v>5944</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2957</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1844</x:v>
+        <x:v>1845</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11663</x:v>
+        <x:v>11667</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2501</x:v>
+        <x:v>2503</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1198</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2623</x:v>
+        <x:v>2625</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7803</x:v>
+        <x:v>7807</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5132</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15291</x:v>
+        <x:v>15295</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8504</x:v>
+        <x:v>8508</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5812</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16925</x:v>
+        <x:v>16929</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>693</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2358</x:v>
+        <x:v>2359</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>765</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>152</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>154</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5625</x:v>
+        <x:v>5626</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2884</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1701</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11083</x:v>
+        <x:v>11084</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5944</x:v>
+        <x:v>5945</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2957</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1845</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11667</x:v>
+        <x:v>11668</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>32</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>233</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>974</x:v>
+        <x:v>975</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2382,7 +2382,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>4</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2359</x:v>
+        <x:v>2360</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2440,7 +2440,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
         <x:v>5</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2707</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7798</x:v>
+        <x:v>7799</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4637</x:v>
+        <x:v>4638</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1429</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14928</x:v>
+        <x:v>14929</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>772</x:v>
@@ -767,7 +767,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2217</x:v>
+        <x:v>2216</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8736</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5409</x:v>
+        <x:v>5410</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -793,7 +793,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1746</x:v>
+        <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>17145</x:v>
@@ -1158,7 +1158,7 @@
         <x:v>5626</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2884</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1701</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11084</x:v>
+        <x:v>11086</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5945</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2957</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1845</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11668</x:v>
+        <x:v>11670</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1132</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2360</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1346</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2707</x:v>
+        <x:v>2708</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7799</x:v>
+        <x:v>7798</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4638</x:v>
+        <x:v>4639</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -752,7 +752,7 @@
         <x:v>937</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>42</x:v>
@@ -764,10 +764,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2216</x:v>
+        <x:v>2218</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8736</x:v>
+        <x:v>8735</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5410</x:v>
+        <x:v>5412</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1745</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17145</x:v>
+        <x:v>17147</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -897,7 +897,7 @@
         <x:v>727</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1424</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>840</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1630</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>875</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1616</x:v>
+        <x:v>1617</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1092</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2046</x:v>
+        <x:v>2047</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5626</x:v>
+        <x:v>5630</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2886</x:v>
@@ -1164,16 +1164,16 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1701</x:v>
+        <x:v>1703</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11086</x:v>
+        <x:v>11091</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>14</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,25 +1213,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5945</x:v>
+        <x:v>5949</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2959</x:v>
+        <x:v>2960</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1845</x:v>
+        <x:v>1847</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11670</x:v>
+        <x:v>11676</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7807</x:v>
+        <x:v>7809</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5132</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15295</x:v>
+        <x:v>15297</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8508</x:v>
+        <x:v>8510</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5812</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16929</x:v>
+        <x:v>16931</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2388,10 +2388,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2361</x:v>
+        <x:v>2362</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2446,10 +2446,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2708</x:v>
+        <x:v>2709</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,16 +720,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7798</x:v>
+        <x:v>7799</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4639</x:v>
+        <x:v>4641</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>31</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14929</x:v>
+        <x:v>14933</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,16 +778,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8735</x:v>
+        <x:v>8736</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5412</x:v>
+        <x:v>5414</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>37</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17147</x:v>
+        <x:v>17151</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>445</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1426</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>840</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>503</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1630</x:v>
+        <x:v>1631</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>152</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>154</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5630</x:v>
+        <x:v>5631</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2886</x:v>
@@ -1164,7 +1164,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1703</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11091</x:v>
+        <x:v>11093</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1193,7 +1193,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>1</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5949</x:v>
+        <x:v>5950</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2960</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1847</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11676</x:v>
+        <x:v>11679</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1166</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2503</x:v>
+        <x:v>2509</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1199</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2625</x:v>
+        <x:v>2631</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7809</x:v>
+        <x:v>7815</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5132</x:v>
+        <x:v>5135</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15297</x:v>
+        <x:v>15306</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8510</x:v>
+        <x:v>8516</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5812</x:v>
+        <x:v>5815</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16931</x:v>
+        <x:v>16940</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>171</x:v>
@@ -1889,7 +1889,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>2</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>354</x:v>
@@ -1947,7 +1947,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>2</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>866</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>201</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>830</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>233</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>975</x:v>
+        <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2382,7 +2382,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>4</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2362</x:v>
+        <x:v>2363</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2440,7 +2440,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
         <x:v>5</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2709</x:v>
+        <x:v>2710</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7799</x:v>
+        <x:v>7798</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4641</x:v>
+        <x:v>4643</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14933</x:v>
+        <x:v>14934</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
@@ -767,7 +767,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2218</x:v>
+        <x:v>2219</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8736</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5414</x:v>
+        <x:v>5416</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17151</x:v>
+        <x:v>17153</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -981,10 +981,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>23</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>23</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,10 +1068,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1617</x:v>
+        <x:v>1619</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2047</x:v>
+        <x:v>2049</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5631</x:v>
+        <x:v>5632</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>201</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1703</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11093</x:v>
+        <x:v>11088</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5950</x:v>
+        <x:v>5951</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2960</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>215</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1847</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11679</x:v>
+        <x:v>11674</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1169</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2509</x:v>
+        <x:v>2511</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1202</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>891</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2631</x:v>
+        <x:v>2633</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7815</x:v>
+        <x:v>7817</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5135</x:v>
+        <x:v>5136</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15306</x:v>
+        <x:v>15309</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>680</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1635</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8516</x:v>
+        <x:v>8519</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5815</x:v>
+        <x:v>5816</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1494</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16940</x:v>
+        <x:v>16944</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>32</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>233</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>979</x:v>
+        <x:v>980</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2363</x:v>
+        <x:v>2365</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2710</x:v>
+        <x:v>2712</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1837,10 +1837,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1635</x:v>
+        <x:v>1636</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1494</x:v>
+        <x:v>1495</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16944</x:v>
+        <x:v>16945</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1883,7 +1883,7 @@
         <x:v>282</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>34</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>593</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1941,7 +1941,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>37</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>865</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2289,7 +2289,7 @@
         <x:v>684</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>50</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>711</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>60</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1787</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
@@ -767,7 +767,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2219</x:v>
+        <x:v>2220</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8736</x:v>
+        <x:v>8737</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5416</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17153</x:v>
+        <x:v>17154</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>153</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>155</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1169</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>823</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1202</x:v>
+        <x:v>1203</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>893</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>201</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>830</x:v>
+        <x:v>829</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>233</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7798</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4643</x:v>
+        <x:v>4644</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -735,7 +735,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>14934</x:v>
@@ -781,7 +781,7 @@
         <x:v>8737</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5416</x:v>
+        <x:v>5417</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -793,7 +793,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1746</x:v>
+        <x:v>1745</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>17154</x:v>
@@ -1155,16 +1155,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5632</x:v>
+        <x:v>5633</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1703</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11088</x:v>
+        <x:v>11090</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,16 +1213,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5951</x:v>
+        <x:v>5952</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1847</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11674</x:v>
+        <x:v>11676</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1170</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>822</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2511</x:v>
+        <x:v>2512</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1203</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>892</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2633</x:v>
+        <x:v>2634</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7817</x:v>
+        <x:v>7819</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5136</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15309</x:v>
+        <x:v>15311</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8519</x:v>
+        <x:v>8521</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5816</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16945</x:v>
+        <x:v>16947</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>446</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>829</x:v>
+        <x:v>830</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>533</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>979</x:v>
+        <x:v>980</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1134</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2365</x:v>
+        <x:v>2367</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1348</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2712</x:v>
+        <x:v>2714</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1427</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14934</x:v>
+        <x:v>14935</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1745</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17154</x:v>
+        <x:v>17155</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>822</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2512</x:v>
+        <x:v>2513</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1204</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>892</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2634</x:v>
+        <x:v>2635</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7819</x:v>
+        <x:v>7820</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5136</x:v>
+        <x:v>5137</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15311</x:v>
+        <x:v>15313</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8521</x:v>
+        <x:v>8522</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5816</x:v>
+        <x:v>5817</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16947</x:v>
+        <x:v>16949</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1100,7 +1100,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>7</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1093</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2049</x:v>
+        <x:v>2051</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5633</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2879</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1703</x:v>
+        <x:v>1704</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11090</x:v>
+        <x:v>11089</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5952</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2953</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1847</x:v>
+        <x:v>1848</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11676</x:v>
+        <x:v>11675</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7820</x:v>
+        <x:v>7821</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5137</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15313</x:v>
+        <x:v>15314</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8522</x:v>
+        <x:v>8523</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5817</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16949</x:v>
+        <x:v>16950</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14935</x:v>
+        <x:v>14937</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1746</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17155</x:v>
+        <x:v>17157</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>445</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1427</x:v>
+        <x:v>1430</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>503</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1631</x:v>
+        <x:v>1634</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5633</x:v>
+        <x:v>5635</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2879</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1704</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11089</x:v>
+        <x:v>11091</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5952</x:v>
+        <x:v>5954</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2953</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1848</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11675</x:v>
+        <x:v>11677</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2513</x:v>
+        <x:v>2514</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2635</x:v>
+        <x:v>2636</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7821</x:v>
+        <x:v>7825</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5137</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15314</x:v>
+        <x:v>15318</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8523</x:v>
+        <x:v>8527</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5817</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16950</x:v>
+        <x:v>16954</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2373,10 +2373,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1136</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2388,10 +2388,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2367</x:v>
+        <x:v>2368</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,10 +2431,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2446,10 +2446,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2714</x:v>
+        <x:v>2715</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -894,10 +894,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1430</x:v>
+        <x:v>1432</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1</x:v>
@@ -941,7 +941,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,10 +952,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1637</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5635</x:v>
+        <x:v>5633</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2879</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1705</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11091</x:v>
+        <x:v>11090</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5954</x:v>
+        <x:v>5952</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2953</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1848</x:v>
+        <x:v>1849</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11677</x:v>
+        <x:v>11676</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>823</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2514</x:v>
+        <x:v>2516</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1204</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>893</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2636</x:v>
+        <x:v>2638</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7825</x:v>
+        <x:v>7836</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5137</x:v>
+        <x:v>5148</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15318</x:v>
+        <x:v>15340</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>702</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1636</x:v>
+        <x:v>1647</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8527</x:v>
+        <x:v>8538</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5817</x:v>
+        <x:v>5839</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16954</x:v>
+        <x:v>16987</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5633</x:v>
+        <x:v>5634</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2879</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1705</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11090</x:v>
+        <x:v>11091</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5952</x:v>
+        <x:v>5953</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2953</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1849</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11676</x:v>
+        <x:v>11677</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7836</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5148</x:v>
+        <x:v>5150</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1318</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15340</x:v>
+        <x:v>15343</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8538</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5839</x:v>
+        <x:v>5841</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1495</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16987</x:v>
+        <x:v>16990</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>446</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1432</x:v>
+        <x:v>1433</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>505</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1637</x:v>
+        <x:v>1638</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -984,7 +984,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>23</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1042,7 +1042,7 @@
         <x:v>369</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>23</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5634</x:v>
+        <x:v>5635</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2879</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1705</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11091</x:v>
+        <x:v>11093</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5953</x:v>
+        <x:v>5954</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2953</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1849</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11677</x:v>
+        <x:v>11679</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1564,7 +1564,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>5</x:v>
@@ -1579,7 +1579,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1622,7 +1622,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>6</x:v>
@@ -1637,7 +1637,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -546,7 +546,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>24</x:v>
@@ -564,7 +564,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,7 +604,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>24</x:v>
@@ -622,7 +622,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7798</x:v>
+        <x:v>7793</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4644</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14937</x:v>
+        <x:v>14932</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8737</x:v>
+        <x:v>8732</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5417</x:v>
@@ -796,7 +796,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17157</x:v>
+        <x:v>17152</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5635</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1705</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11093</x:v>
+        <x:v>11094</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5954</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1849</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11679</x:v>
+        <x:v>11680</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1171</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2516</x:v>
+        <x:v>2518</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1204</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>895</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2638</x:v>
+        <x:v>2640</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7836</x:v>
+        <x:v>7834</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5150</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15343</x:v>
+        <x:v>15341</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,10 +1822,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>691</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1643</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8538</x:v>
+        <x:v>8535</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5841</x:v>
+        <x:v>5838</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1496</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16990</x:v>
+        <x:v>16984</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7793</x:v>
+        <x:v>7792</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4644</x:v>
+        <x:v>4643</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14932</x:v>
+        <x:v>14930</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8732</x:v>
+        <x:v>8731</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5417</x:v>
+        <x:v>5416</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>363</x:v>
@@ -796,7 +796,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17152</x:v>
+        <x:v>17150</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>446</x:v>
@@ -903,7 +903,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>3</x:v>
@@ -912,7 +912,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1433</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>505</x:v>
@@ -961,7 +961,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>3</x:v>
@@ -970,7 +970,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1638</x:v>
+        <x:v>1640</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5635</x:v>
+        <x:v>5636</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2881</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1705</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11094</x:v>
+        <x:v>11095</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1193,7 +1193,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>1</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5954</x:v>
+        <x:v>5955</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2955</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1849</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11680</x:v>
+        <x:v>11682</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>826</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2518</x:v>
+        <x:v>2519</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1206</x:v>
+        <x:v>1207</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>896</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2640</x:v>
+        <x:v>2641</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7834</x:v>
+        <x:v>7836</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5150</x:v>
@@ -1802,16 +1802,16 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15341</x:v>
+        <x:v>15345</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1643</x:v>
+        <x:v>1641</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,25 +1851,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8535</x:v>
+        <x:v>8537</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5838</x:v>
+        <x:v>5836</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1496</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16984</x:v>
+        <x:v>16986</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>3</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1941,7 +1941,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>37</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>865</x:v>
+        <x:v>867</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1973,7 +1973,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
         <x:v>2</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2031,7 +2031,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
         <x:v>3</x:v>
@@ -2043,7 +2043,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>695</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1137</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>62</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2368</x:v>
+        <x:v>2367</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>767</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1351</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>82</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2715</x:v>
+        <x:v>2714</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7792</x:v>
+        <x:v>7790</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4643</x:v>
+        <x:v>4644</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>713</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14930</x:v>
+        <x:v>14928</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
@@ -767,7 +767,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2220</x:v>
+        <x:v>2219</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8731</x:v>
+        <x:v>8728</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5416</x:v>
+        <x:v>5417</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>855</x:v>
@@ -796,7 +796,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17150</x:v>
+        <x:v>17147</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -909,10 +909,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1435</x:v>
+        <x:v>1434</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>59</x:v>
@@ -938,10 +938,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>505</x:v>
@@ -967,10 +967,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1640</x:v>
+        <x:v>1637</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>152</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>154</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>436</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1619</x:v>
+        <x:v>1620</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1093</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>556</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2052</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,25 +1155,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5636</x:v>
+        <x:v>5637</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1705</x:v>
+        <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11095</x:v>
+        <x:v>11097</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,25 +1213,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5955</x:v>
+        <x:v>5956</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1849</x:v>
+        <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11682</x:v>
+        <x:v>11684</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1419,7 +1419,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>4</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1207</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>896</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2641</x:v>
+        <x:v>2642</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7836</x:v>
+        <x:v>7837</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5150</x:v>
+        <x:v>5149</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8537</x:v>
+        <x:v>8538</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5836</x:v>
+        <x:v>5835</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -2379,7 +2379,7 @@
         <x:v>1136</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
         <x:v>70</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2367</x:v>
+        <x:v>2368</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2437,7 +2437,7 @@
         <x:v>1350</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
         <x:v>75</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2714</x:v>
+        <x:v>2715</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7790</x:v>
+        <x:v>7791</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4644</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1430</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14928</x:v>
+        <x:v>14927</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8728</x:v>
+        <x:v>8729</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5417</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1748</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17147</x:v>
+        <x:v>17146</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -984,7 +984,7 @@
         <x:v>365</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>23</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1042,7 +1042,7 @@
         <x:v>370</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>23</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5637</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2878</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11097</x:v>
+        <x:v>11095</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5956</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2952</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11684</x:v>
+        <x:v>11682</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1174</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2521</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1207</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2642</x:v>
+        <x:v>2644</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7837</x:v>
+        <x:v>7838</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5149</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15345</x:v>
+        <x:v>15346</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8538</x:v>
+        <x:v>8539</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5835</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1497</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16986</x:v>
+        <x:v>16987</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>202</x:v>
@@ -2214,7 +2214,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
         <x:v>830</x:v>
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>32</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>234</x:v>
@@ -2272,10 +2272,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1136</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2368</x:v>
+        <x:v>2370</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1350</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2715</x:v>
+        <x:v>2717</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7791</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4644</x:v>
+        <x:v>4645</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>320</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14927</x:v>
+        <x:v>14928</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8729</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5417</x:v>
+        <x:v>5418</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>362</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17146</x:v>
+        <x:v>17147</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>153</x:v>
@@ -999,7 +999,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>155</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5637</x:v>
+        <x:v>5639</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2878</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11095</x:v>
+        <x:v>11097</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5956</x:v>
+        <x:v>5958</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2952</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11682</x:v>
+        <x:v>11684</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1174</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>827</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2521</x:v>
+        <x:v>2523</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1207</x:v>
+        <x:v>1209</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>898</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2644</x:v>
+        <x:v>2646</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>686</x:v>
@@ -1837,10 +1837,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1641</x:v>
+        <x:v>1642</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8539</x:v>
+        <x:v>8538</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5835</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1497</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16987</x:v>
+        <x:v>16988</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2112,7 +2112,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>391</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>570</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7791</x:v>
+        <x:v>7793</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4645</x:v>
+        <x:v>4646</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>320</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14928</x:v>
+        <x:v>14931</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
@@ -767,7 +767,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2219</x:v>
+        <x:v>2218</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8729</x:v>
+        <x:v>8730</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5418</x:v>
+        <x:v>5419</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>362</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17147</x:v>
+        <x:v>17149</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5639</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2878</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11097</x:v>
+        <x:v>11100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5958</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2952</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11684</x:v>
+        <x:v>11687</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1176</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>827</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2523</x:v>
+        <x:v>2522</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1209</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>898</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2645</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7838</x:v>
+        <x:v>7837</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5149</x:v>
+        <x:v>5150</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1825,7 +1825,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1642</x:v>
+        <x:v>1641</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8538</x:v>
+        <x:v>8537</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5835</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1499</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16988</x:v>
+        <x:v>16987</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -926,7 +926,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1</x:v>
@@ -941,7 +941,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>846</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1637</x:v>
+        <x:v>1635</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5639</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2882</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11100</x:v>
+        <x:v>11101</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5958</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2956</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11687</x:v>
+        <x:v>11688</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7837</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5150</x:v>
+        <x:v>5151</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15346</x:v>
+        <x:v>15347</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>8537</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5835</x:v>
+        <x:v>5836</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1499</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16987</x:v>
+        <x:v>16988</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2147,7 +2147,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>12</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
         <x:v>218</x:v>
@@ -2176,7 +2176,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
         <x:v>41</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
         <x:v>778</x:v>
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>202</x:v>
@@ -2214,7 +2214,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
         <x:v>830</x:v>
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>234</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
         <x:v>979</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1136</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2370</x:v>
+        <x:v>2371</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1350</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2717</x:v>
+        <x:v>2718</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7793</x:v>
+        <x:v>7795</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4646</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14931</x:v>
+        <x:v>14933</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8730</x:v>
+        <x:v>8732</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5419</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17149</x:v>
+        <x:v>17151</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -996,10 +996,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5639</x:v>
+        <x:v>5640</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2882</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5958</x:v>
+        <x:v>5959</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2956</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>827</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2522</x:v>
+        <x:v>2523</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1208</x:v>
+        <x:v>1209</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>898</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2645</x:v>
+        <x:v>2646</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7837</x:v>
+        <x:v>7836</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5151</x:v>
+        <x:v>5154</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1320</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15347</x:v>
+        <x:v>15350</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8537</x:v>
+        <x:v>8536</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5836</x:v>
+        <x:v>5839</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16988</x:v>
+        <x:v>16991</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7795</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4646</x:v>
+        <x:v>4647</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>320</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14933</x:v>
+        <x:v>14934</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8732</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5419</x:v>
+        <x:v>5420</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>362</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17151</x:v>
+        <x:v>17152</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>446</x:v>
@@ -912,7 +912,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1434</x:v>
+        <x:v>1433</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>503</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1635</x:v>
+        <x:v>1634</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5640</x:v>
+        <x:v>5642</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2881</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11101</x:v>
+        <x:v>11103</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5959</x:v>
+        <x:v>5961</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2955</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11688</x:v>
+        <x:v>11690</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1242,7 +1242,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>17</x:v>
@@ -1260,7 +1260,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1300,7 +1300,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>22</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7836</x:v>
+        <x:v>7838</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5154</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1321</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15350</x:v>
+        <x:v>15352</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8536</x:v>
+        <x:v>8538</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5839</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16991</x:v>
+        <x:v>16993</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1136</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>63</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2371</x:v>
+        <x:v>2372</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>770</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>83</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2718</x:v>
+        <x:v>2719</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7795</x:v>
+        <x:v>7796</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4647</x:v>
+        <x:v>4648</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>320</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14934</x:v>
+        <x:v>14936</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8732</x:v>
+        <x:v>8733</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5420</x:v>
+        <x:v>5421</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>362</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17152</x:v>
+        <x:v>17154</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>877</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
         <x:v>1620</x:v>
@@ -1129,7 +1129,7 @@
         <x:v>1094</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>2052</x:v>
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5642</x:v>
+        <x:v>5641</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11103</x:v>
+        <x:v>11101</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5961</x:v>
+        <x:v>5960</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11690</x:v>
+        <x:v>11688</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1176</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>827</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2523</x:v>
+        <x:v>2524</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1209</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>898</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2647</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7838</x:v>
+        <x:v>7839</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5154</x:v>
+        <x:v>5155</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1321</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15352</x:v>
+        <x:v>15354</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8538</x:v>
+        <x:v>8539</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5839</x:v>
+        <x:v>5840</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16993</x:v>
+        <x:v>16995</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2301,10 +2301,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2359,10 +2359,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1787</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7796</x:v>
+        <x:v>7797</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4648</x:v>
@@ -738,7 +738,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14936</x:v>
+        <x:v>14937</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8733</x:v>
+        <x:v>8734</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5421</x:v>
@@ -796,7 +796,7 @@
         <x:v>1746</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17154</x:v>
+        <x:v>17155</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>446</x:v>
@@ -912,7 +912,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1433</x:v>
+        <x:v>1434</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>503</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1635</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1068,10 +1068,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>877</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1083,10 +1083,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1620</x:v>
+        <x:v>1624</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1094</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2052</x:v>
+        <x:v>2056</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5641</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2879</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11101</x:v>
+        <x:v>11100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5960</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2953</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11688</x:v>
+        <x:v>11687</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2524</x:v>
+        <x:v>2526</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2647</x:v>
+        <x:v>2649</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7839</x:v>
+        <x:v>7842</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5155</x:v>
+        <x:v>5156</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1321</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15354</x:v>
+        <x:v>15358</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8539</x:v>
+        <x:v>8542</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5840</x:v>
+        <x:v>5841</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16995</x:v>
+        <x:v>16999</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>505</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1487</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>714</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1785</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,13 +2376,13 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1137</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>63</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>4</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2372</x:v>
+        <x:v>2370</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,13 +2434,13 @@
         <x:v>770</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1351</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
         <x:v>5</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2719</x:v>
+        <x:v>2717</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7797</x:v>
+        <x:v>7804</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4648</x:v>
+        <x:v>4654</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>713</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14937</x:v>
+        <x:v>14952</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,13 +749,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>773</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>142</x:v>
@@ -764,10 +764,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2218</x:v>
+        <x:v>2220</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8734</x:v>
+        <x:v>8740</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5421</x:v>
+        <x:v>5427</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>855</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1746</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17155</x:v>
+        <x:v>17172</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -897,7 +897,7 @@
         <x:v>734</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>35</x:v>
@@ -912,7 +912,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1434</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>846</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1635</x:v>
+        <x:v>1636</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>153</x:v>
@@ -999,7 +999,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>155</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,10 +1068,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1627</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2056</x:v>
+        <x:v>2059</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5641</x:v>
+        <x:v>5647</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2879</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1706</x:v>
+        <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11100</x:v>
+        <x:v>11109</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5960</x:v>
+        <x:v>5966</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2953</x:v>
+        <x:v>2955</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1850</x:v>
+        <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11687</x:v>
+        <x:v>11696</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1177</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>827</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2525</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1210</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2649</x:v>
+        <x:v>2648</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>7842</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5156</x:v>
+        <x:v>5158</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1321</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15358</x:v>
+        <x:v>15360</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>685</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
         <x:v>1641</x:v>
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8542</x:v>
+        <x:v>8541</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5841</x:v>
+        <x:v>5843</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1500</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>16999</x:v>
+        <x:v>17001</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>170</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>355</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>868</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2199,10 +2199,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>830</x:v>
+        <x:v>832</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2231,7 +2231,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>3</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,10 +2257,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>979</x:v>
+        <x:v>982</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,10 +2286,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>50</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,10 +2344,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>60</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2379,7 +2379,7 @@
         <x:v>1136</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
         <x:v>69</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2370</x:v>
+        <x:v>2371</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2437,7 +2437,7 @@
         <x:v>1350</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
         <x:v>74</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2717</x:v>
+        <x:v>2718</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7804</x:v>
+        <x:v>7805</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4654</x:v>
+        <x:v>4655</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1429</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14952</x:v>
+        <x:v>14955</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <x:v>936</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>44</x:v>
@@ -767,7 +767,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2220</x:v>
+        <x:v>2221</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8740</x:v>
+        <x:v>8741</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5427</x:v>
+        <x:v>5429</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>365</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1748</x:v>
+        <x:v>1749</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17172</x:v>
+        <x:v>17176</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1100,7 +1100,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>7</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1096</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2059</x:v>
+        <x:v>2060</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5647</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2883</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11109</x:v>
+        <x:v>11111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5966</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2955</x:v>
+        <x:v>2957</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11696</x:v>
+        <x:v>11698</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7842</x:v>
+        <x:v>7840</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5158</x:v>
+        <x:v>5159</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1321</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
         <x:v>15360</x:v>
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8541</x:v>
+        <x:v>8539</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5843</x:v>
+        <x:v>5844</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
         <x:v>17001</x:v>
@@ -2376,7 +2376,7 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1136</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>64</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2371</x:v>
+        <x:v>2372</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>770</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>84</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2718</x:v>
+        <x:v>2719</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5647</x:v>
+        <x:v>5648</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2883</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11111</x:v>
+        <x:v>11112</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5966</x:v>
+        <x:v>5967</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2957</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11698</x:v>
+        <x:v>11699</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1158,7 +1158,7 @@
         <x:v>5648</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2883</x:v>
+        <x:v>2884</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11112</x:v>
+        <x:v>11113</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>14</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5967</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2957</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11699</x:v>
+        <x:v>11701</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1177</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>826</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2525</x:v>
+        <x:v>2526</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1210</x:v>
+        <x:v>1211</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>897</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2648</x:v>
+        <x:v>2649</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7840</x:v>
+        <x:v>7843</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5159</x:v>
+        <x:v>5160</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>242</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15360</x:v>
+        <x:v>15364</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8539</x:v>
+        <x:v>8542</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5844</x:v>
+        <x:v>5845</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>281</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17001</x:v>
+        <x:v>17005</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2243,10 +2243,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2272,10 +2272,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7805</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4655</x:v>
+        <x:v>4652</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1430</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14955</x:v>
+        <x:v>14951</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8741</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5429</x:v>
+        <x:v>5426</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>365</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1749</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17176</x:v>
+        <x:v>17172</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>879</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>44</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1627</x:v>
+        <x:v>1629</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>1096</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>51</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2060</x:v>
+        <x:v>2062</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5648</x:v>
+        <x:v>5652</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2884</x:v>
+        <x:v>2888</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>202</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11113</x:v>
+        <x:v>11121</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5967</x:v>
+        <x:v>5971</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2959</x:v>
+        <x:v>2963</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>216</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11701</x:v>
+        <x:v>11709</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1178</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>826</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1211</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>897</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2649</x:v>
+        <x:v>2650</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,13 +1793,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7843</x:v>
+        <x:v>7845</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5160</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>765</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15364</x:v>
+        <x:v>15367</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,13 +1851,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8542</x:v>
+        <x:v>8544</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5845</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>803</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17005</x:v>
+        <x:v>17008</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>3</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1941,7 +1941,7 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>37</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>865</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2289,7 +2289,7 @@
         <x:v>685</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>50</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>10</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>60</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1790</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -752,7 +752,7 @@
         <x:v>936</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>44</x:v>
@@ -767,7 +767,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2221</x:v>
+        <x:v>2222</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8741</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5426</x:v>
+        <x:v>5427</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>365</x:v>
@@ -796,7 +796,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17172</x:v>
+        <x:v>17173</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5652</x:v>
+        <x:v>5651</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2888</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11121</x:v>
+        <x:v>11120</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5971</x:v>
+        <x:v>5970</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2963</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11709</x:v>
+        <x:v>11708</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>10</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
         <x:v>301</x:v>
@@ -2347,7 +2347,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>60</x:v>
@@ -2359,7 +2359,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
         <x:v>1790</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5651</x:v>
+        <x:v>5653</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2888</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11120</x:v>
+        <x:v>11122</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5970</x:v>
+        <x:v>5972</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2963</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11708</x:v>
+        <x:v>11710</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7805</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4652</x:v>
+        <x:v>4653</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1429</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14951</x:v>
+        <x:v>14952</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8741</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5427</x:v>
+        <x:v>5428</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>365</x:v>
@@ -796,7 +796,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17173</x:v>
+        <x:v>17174</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,13 +1155,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5653</x:v>
+        <x:v>5652</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2888</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>651</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1707</x:v>
+        <x:v>1706</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11122</x:v>
+        <x:v>11119</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,13 +1213,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5972</x:v>
+        <x:v>5971</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2963</x:v>
+        <x:v>2961</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>686</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1851</x:v>
+        <x:v>1850</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11710</x:v>
+        <x:v>11707</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7805</x:v>
+        <x:v>7806</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4653</x:v>
+        <x:v>4652</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -735,10 +735,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1429</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14952</x:v>
+        <x:v>14953</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8741</x:v>
+        <x:v>8742</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5428</x:v>
+        <x:v>5427</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>365</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1748</x:v>
+        <x:v>1749</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17174</x:v>
+        <x:v>17175</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>447</x:v>
@@ -912,7 +912,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>1435</x:v>
+        <x:v>1436</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>504</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1636</x:v>
+        <x:v>1637</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>879</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>440</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1629</x:v>
+        <x:v>1630</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>121</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>561</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2062</x:v>
+        <x:v>2064</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5652</x:v>
+        <x:v>5654</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2884</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>203</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1706</x:v>
+        <x:v>1707</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11119</x:v>
+        <x:v>11120</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>14</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5971</x:v>
+        <x:v>5972</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2961</x:v>
+        <x:v>2960</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>217</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1850</x:v>
+        <x:v>1851</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11707</x:v>
+        <x:v>11708</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1179</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>826</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2529</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1212</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>897</x:v>
@@ -1460,10 +1460,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2650</x:v>
+        <x:v>2652</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7845</x:v>
+        <x:v>7842</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5160</x:v>
@@ -1802,7 +1802,7 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>32</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15367</x:v>
+        <x:v>15370</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8544</x:v>
+        <x:v>8541</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5845</x:v>
@@ -1860,7 +1860,7 @@
         <x:v>282</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>803</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17008</x:v>
+        <x:v>17011</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2112,7 +2112,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>391</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>570</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>203</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>832</x:v>
+        <x:v>836</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>236</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>987</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7806</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4652</x:v>
+        <x:v>4655</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>321</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14953</x:v>
+        <x:v>14956</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8742</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5427</x:v>
+        <x:v>5430</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>365</x:v>
@@ -796,7 +796,7 @@
         <x:v>1749</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17175</x:v>
+        <x:v>17178</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5654</x:v>
+        <x:v>5656</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2884</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>203</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1707</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11120</x:v>
+        <x:v>11125</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5972</x:v>
+        <x:v>5974</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2960</x:v>
+        <x:v>2962</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>217</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1851</x:v>
+        <x:v>1852</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11708</x:v>
+        <x:v>11713</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7842</x:v>
+        <x:v>7843</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5160</x:v>
+        <x:v>5161</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>243</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15370</x:v>
+        <x:v>15372</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8541</x:v>
+        <x:v>8542</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5845</x:v>
+        <x:v>5846</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>282</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17011</x:v>
+        <x:v>17013</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>179</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>570</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>776</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1137</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>64</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2372</x:v>
+        <x:v>2373</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>770</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1351</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>84</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2719</x:v>
+        <x:v>2720</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -726,7 +726,7 @@
         <x:v>4655</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>713</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14956</x:v>
+        <x:v>14957</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>775</x:v>
@@ -767,7 +767,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2222</x:v>
+        <x:v>2224</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8742</x:v>
+        <x:v>8744</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5430</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>855</x:v>
@@ -796,7 +796,7 @@
         <x:v>1749</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17178</x:v>
+        <x:v>17181</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>5656</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2887</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>203</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1708</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11125</x:v>
+        <x:v>11126</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>5974</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2962</x:v>
+        <x:v>2963</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>217</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1852</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11713</x:v>
+        <x:v>11714</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1180</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2529</x:v>
+        <x:v>2530</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1213</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2652</x:v>
+        <x:v>2653</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1822,10 +1822,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1641</x:v>
+        <x:v>1643</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8542</x:v>
+        <x:v>8543</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5846</x:v>
+        <x:v>5847</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>282</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17013</x:v>
+        <x:v>17015</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1138</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2373</x:v>
+        <x:v>2374</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1352</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2720</x:v>
+        <x:v>2721</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -723,7 +723,7 @@
         <x:v>7806</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4655</x:v>
+        <x:v>4656</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14957</x:v>
+        <x:v>14958</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <x:v>938</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>44</x:v>
@@ -764,10 +764,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2224</x:v>
+        <x:v>2226</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8744</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5430</x:v>
+        <x:v>5432</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>366</x:v>
@@ -793,10 +793,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1749</x:v>
+        <x:v>1750</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17181</x:v>
+        <x:v>17184</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1</x:v>
@@ -941,7 +941,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>847</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1637</x:v>
+        <x:v>1638</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -987,7 +987,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>15</x:v>
@@ -999,7 +999,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1045,7 +1045,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>15</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5656</x:v>
+        <x:v>5658</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2887</x:v>
@@ -1164,7 +1164,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1708</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11126</x:v>
+        <x:v>11129</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5974</x:v>
+        <x:v>5976</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2963</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1852</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11714</x:v>
+        <x:v>11717</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7843</x:v>
+        <x:v>7841</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5161</x:v>
+        <x:v>5162</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>243</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15372</x:v>
+        <x:v>15371</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8543</x:v>
+        <x:v>8541</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5847</x:v>
+        <x:v>5848</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>282</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1502</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17015</x:v>
+        <x:v>17014</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>21</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>836</x:v>
+        <x:v>838</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>535</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>24</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -926,7 +926,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1</x:v>
@@ -941,7 +941,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>847</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>36</x:v>
@@ -970,7 +970,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>1638</x:v>
+        <x:v>1641</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1158,22 +1158,22 @@
         <x:v>5658</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2887</x:v>
+        <x:v>2888</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>203</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1708</x:v>
+        <x:v>1709</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11129</x:v>
+        <x:v>11130</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1216,22 +1216,22 @@
         <x:v>5976</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2963</x:v>
+        <x:v>2964</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>217</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>1852</x:v>
+        <x:v>1853</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11717</x:v>
+        <x:v>11718</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1180</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>827</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2530</x:v>
+        <x:v>2531</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1213</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2653</x:v>
+        <x:v>2654</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1576,10 +1576,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1634,10 +1634,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>699</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1138</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>64</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2374</x:v>
+        <x:v>2375</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1352</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>84</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2721</x:v>
+        <x:v>2722</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1097,7 +1097,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>121</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>438</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>561</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2064</x:v>
+        <x:v>2068</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -2112,7 +2112,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>391</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>560</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>570</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>20</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1353</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>84</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2722</x:v>
+        <x:v>2721</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7806</x:v>
+        <x:v>7807</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4656</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14958</x:v>
+        <x:v>14959</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8744</x:v>
+        <x:v>8745</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5432</x:v>
@@ -796,7 +796,7 @@
         <x:v>1750</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17184</x:v>
+        <x:v>17185</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5658</x:v>
+        <x:v>5657</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2888</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1709</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11130</x:v>
+        <x:v>11129</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5976</x:v>
+        <x:v>5975</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2964</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1853</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11718</x:v>
+        <x:v>11717</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1837,10 +1837,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1643</x:v>
+        <x:v>1644</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17014</x:v>
+        <x:v>17015</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7807</x:v>
+        <x:v>7808</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4656</x:v>
+        <x:v>4657</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>322</x:v>
@@ -738,7 +738,7 @@
         <x:v>1430</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14959</x:v>
+        <x:v>14961</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8745</x:v>
+        <x:v>8746</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5432</x:v>
+        <x:v>5433</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>366</x:v>
@@ -796,7 +796,7 @@
         <x:v>1750</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>17185</x:v>
+        <x:v>17187</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1155,13 +1155,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>5657</x:v>
+        <x:v>5661</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2888</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>651</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>1709</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>11129</x:v>
+        <x:v>11134</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1213,13 +1213,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>5975</x:v>
+        <x:v>5979</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>2964</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>686</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>1853</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>11717</x:v>
+        <x:v>11722</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1180</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>828</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>51</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2531</x:v>
+        <x:v>2532</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1213</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>55</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2654</x:v>
+        <x:v>2655</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,16 +1793,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7841</x:v>
+        <x:v>7842</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5162</x:v>
+        <x:v>5163</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>243</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>32</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>15371</x:v>
+        <x:v>15374</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>39</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1644</x:v>
+        <x:v>1645</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,16 +1851,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>8541</x:v>
+        <x:v>8542</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5848</x:v>
+        <x:v>5850</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>282</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1503</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>17015</x:v>
+        <x:v>17019</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>179</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>570</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>699</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1139</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>64</x:v>
@@ -2388,10 +2388,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2375</x:v>
+        <x:v>2377</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1352</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>84</x:v>
@@ -2446,10 +2446,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2721</x:v>
+        <x:v>2723</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1180</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>829</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2532</x:v>
+        <x:v>2533</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1213</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>900</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2655</x:v>
+        <x:v>2656</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>10</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>60</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>1790</x:v>
+        <x:v>1791</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -145,7 +145,7 @@
     <x:t>938</x:t>
   </x:si>
   <x:si>
-    <x:t>777</x:t>
+    <x:t>778</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
@@ -160,13 +160,13 @@
     <x:t>320</x:t>
   </x:si>
   <x:si>
-    <x:t>2228</x:t>
+    <x:t>2229</x:t>
   </x:si>
   <x:si>
     <x:t>8747</x:t>
   </x:si>
   <x:si>
-    <x:t>5435</x:t>
+    <x:t>5436</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -181,7 +181,7 @@
     <x:t>1750</x:t>
   </x:si>
   <x:si>
-    <x:t>17191</x:t>
+    <x:t>17192</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -325,7 +325,7 @@
     <x:t>5661</x:t>
   </x:si>
   <x:si>
-    <x:t>2891</x:t>
+    <x:t>2889</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -334,10 +334,10 @@
     <x:t>651</x:t>
   </x:si>
   <x:si>
-    <x:t>1709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11137</x:t>
+    <x:t>1708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11134</x:t>
   </x:si>
   <x:si>
     <x:t>318</x:t>
@@ -355,7 +355,7 @@
     <x:t>5979</x:t>
   </x:si>
   <x:si>
-    <x:t>2967</x:t>
+    <x:t>2965</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -367,10 +367,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>1853</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11725</x:t>
+    <x:t>1852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11722</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -439,174 +439,177 @@
     <x:t>Homicide Offenses</x:t>
   </x:si>
   <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
     <x:t>179</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8545</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5851</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
@@ -619,16 +622,13 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>778</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838</x:t>
+    <x:t>450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>839</x:t>
   </x:si>
   <x:si>
     <x:t>86</x:t>
@@ -637,7 +637,7 @@
     <x:t>151</x:t>
   </x:si>
   <x:si>
-    <x:t>535</x:t>
+    <x:t>536</x:t>
   </x:si>
   <x:si>
     <x:t>238</x:t>
@@ -646,7 +646,7 @@
     <x:t>165</x:t>
   </x:si>
   <x:si>
-    <x:t>989</x:t>
+    <x:t>990</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -2167,13 +2167,13 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>14</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -2222,30 +2222,30 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>10</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>46</x:v>
@@ -2274,7 +2274,7 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>18</x:v>
@@ -2283,7 +2283,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>46</x:v>
@@ -2303,16 +2303,16 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>46</x:v>
@@ -2327,12 +2327,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>17</x:v>
@@ -2361,16 +2361,16 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="D44" s="1" t="s">
-        <x:v>150</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>46</x:v>
@@ -2385,143 +2385,143 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>14</x:v>
@@ -2530,21 +2530,21 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>53</x:v>
@@ -2559,18 +2559,18 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>79</x:v>
@@ -2593,7 +2593,7 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>17</x:v>
@@ -2622,16 +2622,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>24</x:v>
@@ -2643,21 +2643,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>116</x:v>
@@ -2680,13 +2680,13 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
         <x:v>116</x:v>
@@ -2709,13 +2709,13 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
         <x:v>194</x:v>
@@ -2724,7 +2724,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
@@ -2738,28 +2738,28 @@
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
         <x:v>114</x:v>
@@ -2767,22 +2767,22 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="E58" s="1" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="D58" s="1" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="E58" s="1" t="s">
-        <x:v>197</x:v>
-      </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
@@ -2791,7 +2791,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2895,7 +2895,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>109</x:v>
@@ -2924,16 +2924,16 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
         <x:v>218</x:v>
@@ -3011,7 +3011,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
         <x:v>79</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -241,7 +241,7 @@
     <x:t>Counterfeiting/Forgery</x:t>
   </x:si>
   <x:si>
-    <x:t>368</x:t>
+    <x:t>369</x:t>
   </x:si>
   <x:si>
     <x:t>153</x:t>
@@ -250,19 +250,19 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>645</x:t>
+    <x:t>646</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>373</x:t>
+    <x:t>374</x:t>
   </x:si>
   <x:si>
     <x:t>155</x:t>
   </x:si>
   <x:si>
-    <x:t>652</x:t>
+    <x:t>653</x:t>
   </x:si>
   <x:si>
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
@@ -322,10 +322,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2889</x:t>
+    <x:t>5662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2890</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -337,7 +337,7 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11134</x:t>
+    <x:t>11136</x:t>
   </x:si>
   <x:si>
     <x:t>318</x:t>
@@ -352,10 +352,10 @@
     <x:t>588</x:t>
   </x:si>
   <x:si>
-    <x:t>5979</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2965</x:t>
+    <x:t>5980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2966</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -370,7 +370,7 @@
     <x:t>1852</x:t>
   </x:si>
   <x:si>
-    <x:t>11722</x:t>
+    <x:t>11724</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -394,16 +394,16 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>1181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>829</x:t>
+    <x:t>1182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
   </x:si>
   <x:si>
     <x:t>323</x:t>
   </x:si>
   <x:si>
-    <x:t>2533</x:t>
+    <x:t>2535</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
@@ -415,10 +415,10 @@
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>1214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>900</x:t>
+    <x:t>1215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
@@ -430,7 +430,7 @@
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>2656</x:t>
+    <x:t>2658</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -493,7 +493,7 @@
     <x:t>5165</x:t>
   </x:si>
   <x:si>
-    <x:t>243</x:t>
+    <x:t>244</x:t>
   </x:si>
   <x:si>
     <x:t>772</x:t>
@@ -505,7 +505,7 @@
     <x:t>1322</x:t>
   </x:si>
   <x:si>
-    <x:t>15378</x:t>
+    <x:t>15379</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -526,7 +526,7 @@
     <x:t>5852</x:t>
   </x:si>
   <x:si>
-    <x:t>282</x:t>
+    <x:t>283</x:t>
   </x:si>
   <x:si>
     <x:t>810</x:t>
@@ -535,15 +535,12 @@
     <x:t>1503</x:t>
   </x:si>
   <x:si>
-    <x:t>17024</x:t>
+    <x:t>17025</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
   </x:si>
   <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
     <x:t>170</x:t>
   </x:si>
   <x:si>
@@ -652,16 +649,13 @@
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>685</x:t>
-  </x:si>
-  <x:si>
     <x:t>505</x:t>
   </x:si>
   <x:si>
     <x:t>168</x:t>
   </x:si>
   <x:si>
-    <x:t>1489</x:t>
+    <x:t>1490</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -673,9 +667,6 @@
     <x:t>302</x:t>
   </x:si>
   <x:si>
-    <x:t>712</x:t>
-  </x:si>
-  <x:si>
     <x:t>719</x:t>
   </x:si>
   <x:si>
@@ -685,7 +676,7 @@
     <x:t>209</x:t>
   </x:si>
   <x:si>
-    <x:t>1791</x:t>
+    <x:t>1792</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -2483,25 +2474,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="D48" s="1" t="s">
+      <x:c r="E48" s="1" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="s">
+      <x:c r="F48" s="1" t="s">
         <x:v>177</x:v>
-      </x:c>
-      <x:c r="F48" s="1" t="s">
-        <x:v>178</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="s">
         <x:v>179</x:v>
-      </x:c>
-      <x:c r="I48" s="1" t="s">
-        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2515,7 +2506,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>27</x:v>
@@ -2530,7 +2521,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2541,10 +2532,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="D50" s="1" t="s">
-        <x:v>184</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>53</x:v>
@@ -2559,18 +2550,18 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>79</x:v>
@@ -2593,7 +2584,7 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>17</x:v>
@@ -2622,16 +2613,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="D53" s="1" t="s">
-        <x:v>189</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>24</x:v>
@@ -2643,15 +2634,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="I53" s="1" t="s">
         <x:v>190</x:v>
-      </x:c>
-      <x:c r="I53" s="1" t="s">
-        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
@@ -2680,7 +2671,7 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>18</x:v>
@@ -2709,7 +2700,7 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
@@ -2718,42 +2709,42 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="I56" s="1" t="s">
         <x:v>195</x:v>
-      </x:c>
-      <x:c r="I56" s="1" t="s">
-        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>14</x:v>
@@ -2767,22 +2758,22 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D58" s="1" t="s">
+      <x:c r="E58" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="F58" s="1" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="E58" s="1" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="F58" s="1" t="s">
-        <x:v>201</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
@@ -2796,13 +2787,13 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
         <x:v>67</x:v>
@@ -2820,18 +2811,18 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>130</x:v>
@@ -2846,24 +2837,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>207</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="s">
-        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2875,24 +2866,24 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="I61" s="1" t="s">
-        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>154</x:v>
@@ -2904,102 +2895,102 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E63" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="G63" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H63" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="I63" s="1" t="s">
         <x:v>216</x:v>
-      </x:c>
-      <x:c r="D63" s="1" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="F63" s="1" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="G63" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H63" s="1" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
@@ -3008,7 +2999,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>149</x:v>
@@ -3023,36 +3014,36 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,7 +121,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7809</x:t>
+    <x:t>7810</x:t>
   </x:si>
   <x:si>
     <x:t>4658</x:t>
@@ -139,7 +139,7 @@
     <x:t>1430</x:t>
   </x:si>
   <x:si>
-    <x:t>14963</x:t>
+    <x:t>14964</x:t>
   </x:si>
   <x:si>
     <x:t>938</x:t>
@@ -163,7 +163,7 @@
     <x:t>2229</x:t>
   </x:si>
   <x:si>
-    <x:t>8747</x:t>
+    <x:t>8748</x:t>
   </x:si>
   <x:si>
     <x:t>5436</x:t>
@@ -181,7 +181,7 @@
     <x:t>1750</x:t>
   </x:si>
   <x:si>
-    <x:t>17192</x:t>
+    <x:t>17193</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -322,10 +322,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2890</x:t>
+    <x:t>5663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2894</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -337,7 +337,7 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11136</x:t>
+    <x:t>11141</x:t>
   </x:si>
   <x:si>
     <x:t>318</x:t>
@@ -352,10 +352,10 @@
     <x:t>588</x:t>
   </x:si>
   <x:si>
-    <x:t>5980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2966</x:t>
+    <x:t>5981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2970</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -370,7 +370,7 @@
     <x:t>1852</x:t>
   </x:si>
   <x:si>
-    <x:t>11724</x:t>
+    <x:t>11729</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -487,7 +487,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7844</x:t>
+    <x:t>7845</x:t>
   </x:si>
   <x:si>
     <x:t>5165</x:t>
@@ -502,10 +502,10 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15379</x:t>
+    <x:t>1323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15381</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -520,7 +520,7 @@
     <x:t>1646</x:t>
   </x:si>
   <x:si>
-    <x:t>8545</x:t>
+    <x:t>8546</x:t>
   </x:si>
   <x:si>
     <x:t>5852</x:t>
@@ -532,10 +532,10 @@
     <x:t>810</x:t>
   </x:si>
   <x:si>
-    <x:t>1503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17025</x:t>
+    <x:t>1504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17027</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -325,7 +325,7 @@
     <x:t>5663</x:t>
   </x:si>
   <x:si>
-    <x:t>2894</x:t>
+    <x:t>2895</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -337,7 +337,7 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11141</x:t>
+    <x:t>11142</x:t>
   </x:si>
   <x:si>
     <x:t>318</x:t>
@@ -355,7 +355,7 @@
     <x:t>5981</x:t>
   </x:si>
   <x:si>
-    <x:t>2970</x:t>
+    <x:t>2971</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -370,7 +370,7 @@
     <x:t>1852</x:t>
   </x:si>
   <x:si>
-    <x:t>11729</x:t>
+    <x:t>11730</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -625,7 +625,10 @@
     <x:t>450</x:t>
   </x:si>
   <x:si>
-    <x:t>839</x:t>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>840</x:t>
   </x:si>
   <x:si>
     <x:t>86</x:t>
@@ -637,13 +640,13 @@
     <x:t>536</x:t>
   </x:si>
   <x:si>
-    <x:t>238</x:t>
+    <x:t>239</x:t>
   </x:si>
   <x:si>
     <x:t>165</x:t>
   </x:si>
   <x:si>
-    <x:t>990</x:t>
+    <x:t>991</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -2796,7 +2799,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2811,7 +2814,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2822,7 +2825,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>130</x:v>
@@ -2840,7 +2843,7 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2851,10 +2854,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2866,15 +2869,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
@@ -2883,7 +2886,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>154</x:v>
@@ -2895,24 +2898,24 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>188</x:v>
@@ -2927,12 +2930,12 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2941,56 +2944,56 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
@@ -2999,7 +3002,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>149</x:v>
@@ -3014,36 +3017,36 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -292,10 +292,7 @@
     <x:t>222</x:t>
   </x:si>
   <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
+    <x:t>120</x:t>
   </x:si>
   <x:si>
     <x:t>438</x:t>
@@ -304,7 +301,7 @@
     <x:t>1102</x:t>
   </x:si>
   <x:si>
-    <x:t>561</x:t>
+    <x:t>560</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -313,7 +310,7 @@
     <x:t>72</x:t>
   </x:si>
   <x:si>
-    <x:t>278</x:t>
+    <x:t>279</x:t>
   </x:si>
   <x:si>
     <x:t>2068</x:t>
@@ -601,18 +598,12 @@
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
     <x:t>179</x:t>
   </x:si>
   <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
     <x:t>570</x:t>
   </x:si>
   <x:si>
@@ -688,7 +679,7 @@
     <x:t>699</x:t>
   </x:si>
   <x:si>
-    <x:t>1140</x:t>
+    <x:t>1142</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
@@ -697,7 +688,7 @@
     <x:t>401</x:t>
   </x:si>
   <x:si>
-    <x:t>2377</x:t>
+    <x:t>2379</x:t>
   </x:si>
   <x:si>
     <x:t>347</x:t>
@@ -706,7 +697,7 @@
     <x:t>771</x:t>
   </x:si>
   <x:si>
-    <x:t>1354</x:t>
+    <x:t>1356</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
@@ -715,7 +706,7 @@
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2724</x:t>
+    <x:t>2726</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1709,10 +1700,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1723,68 +1714,68 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D23" s="1" t="s">
+      <x:c r="E23" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="s">
+      <x:c r="F23" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F23" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="I23" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="I23" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
         <x:v>32</x:v>
@@ -1796,44 +1787,44 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I24" s="1" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D25" s="1" t="s">
+      <x:c r="E25" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E25" s="1" t="s">
+      <x:c r="F25" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F25" s="1" t="s">
+      <x:c r="G25" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G25" s="1" t="s">
+      <x:c r="H25" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="H25" s="1" t="s">
+      <x:c r="I25" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="I25" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>10</x:v>
@@ -1842,7 +1833,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>79</x:v>
@@ -1857,12 +1848,12 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>17</x:v>
@@ -1891,16 +1882,16 @@
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
         <x:v>79</x:v>
@@ -1915,12 +1906,12 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I28" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>10</x:v>
@@ -1949,7 +1940,7 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>18</x:v>
@@ -1978,45 +1969,45 @@
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I31" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="I31" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>88</x:v>
@@ -2028,7 +2019,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
         <x:v>62</x:v>
@@ -2036,36 +2027,36 @@
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="E33" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I33" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="I33" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>10</x:v>
@@ -2094,7 +2085,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>17</x:v>
@@ -2123,7 +2114,7 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>18</x:v>
@@ -2152,36 +2143,36 @@
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G37" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H37" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I37" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="G37" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H37" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="I37" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>17</x:v>
@@ -2210,36 +2201,36 @@
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="D39" s="1" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="I39" s="1" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="I39" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>10</x:v>
@@ -2248,7 +2239,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>46</x:v>
@@ -2268,7 +2259,7 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>18</x:v>
@@ -2277,7 +2268,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>46</x:v>
@@ -2297,16 +2288,16 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>46</x:v>
@@ -2321,12 +2312,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>17</x:v>
@@ -2355,16 +2346,16 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>46</x:v>
@@ -2379,166 +2370,166 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F46" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H46" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H46" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="D47" s="1" t="s">
+      <x:c r="E47" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="E47" s="1" t="s">
+      <x:c r="F47" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="F47" s="1" t="s">
+      <x:c r="G47" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H47" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="G47" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H47" s="1" t="s">
+      <x:c r="I47" s="1" t="s">
         <x:v>172</x:v>
-      </x:c>
-      <x:c r="I47" s="1" t="s">
-        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="s">
+      <x:c r="F48" s="1" t="s">
         <x:v>176</x:v>
-      </x:c>
-      <x:c r="F48" s="1" t="s">
-        <x:v>177</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="s">
         <x:v>178</x:v>
-      </x:c>
-      <x:c r="I48" s="1" t="s">
-        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
         <x:v>182</x:v>
-      </x:c>
-      <x:c r="D50" s="1" t="s">
-        <x:v>183</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>53</x:v>
@@ -2550,21 +2541,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>79</x:v>
@@ -2587,7 +2578,7 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>17</x:v>
@@ -2616,16 +2607,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
         <x:v>187</x:v>
-      </x:c>
-      <x:c r="D53" s="1" t="s">
-        <x:v>188</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>24</x:v>
@@ -2637,24 +2628,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I53" s="1" t="s">
         <x:v>189</x:v>
-      </x:c>
-      <x:c r="I53" s="1" t="s">
-        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>88</x:v>
@@ -2674,16 +2665,16 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>88</x:v>
@@ -2703,80 +2694,80 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="F58" s="1" t="s">
         <x:v>197</x:v>
-      </x:c>
-      <x:c r="F58" s="1" t="s">
-        <x:v>200</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
@@ -2790,16 +2781,16 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2814,21 +2805,21 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
         <x:v>27</x:v>
@@ -2840,24 +2831,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2869,73 +2860,73 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2944,68 +2935,68 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
         <x:v>79</x:v>
@@ -3017,36 +3008,36 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,7 +121,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7810</x:t>
+    <x:t>7811</x:t>
   </x:si>
   <x:si>
     <x:t>4658</x:t>
@@ -139,7 +139,7 @@
     <x:t>1430</x:t>
   </x:si>
   <x:si>
-    <x:t>14964</x:t>
+    <x:t>14965</x:t>
   </x:si>
   <x:si>
     <x:t>938</x:t>
@@ -163,7 +163,7 @@
     <x:t>2229</x:t>
   </x:si>
   <x:si>
-    <x:t>8748</x:t>
+    <x:t>8749</x:t>
   </x:si>
   <x:si>
     <x:t>5436</x:t>
@@ -181,7 +181,7 @@
     <x:t>1750</x:t>
   </x:si>
   <x:si>
-    <x:t>17193</x:t>
+    <x:t>17194</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -484,10 +484,10 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7845</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5165</x:t>
+    <x:t>7846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5167</x:t>
   </x:si>
   <x:si>
     <x:t>244</x:t>
@@ -499,10 +499,10 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15381</x:t>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15387</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -517,10 +517,10 @@
     <x:t>1646</x:t>
   </x:si>
   <x:si>
-    <x:t>8546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5852</x:t>
+    <x:t>8547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5854</x:t>
   </x:si>
   <x:si>
     <x:t>283</x:t>
@@ -529,10 +529,10 @@
     <x:t>810</x:t>
   </x:si>
   <x:si>
-    <x:t>1504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17027</x:t>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17033</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,7 +121,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7811</x:t>
+    <x:t>7810</x:t>
   </x:si>
   <x:si>
     <x:t>4658</x:t>
@@ -139,477 +139,480 @@
     <x:t>1430</x:t>
   </x:si>
   <x:si>
-    <x:t>14965</x:t>
+    <x:t>14964</x:t>
   </x:si>
   <x:si>
     <x:t>938</x:t>
   </x:si>
   <x:si>
+    <x:t>777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
     <x:t>778</x:t>
   </x:si>
   <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>847</x:t>
-  </x:si>
-  <x:si>
-    <x:t>509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2895</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>318</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5981</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11730</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2658</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
@@ -679,7 +682,7 @@
     <x:t>699</x:t>
   </x:si>
   <x:si>
-    <x:t>1142</x:t>
+    <x:t>1141</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
@@ -688,16 +691,19 @@
     <x:t>401</x:t>
   </x:si>
   <x:si>
-    <x:t>2379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>347</x:t>
+    <x:t>2378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>346</x:t>
   </x:si>
   <x:si>
     <x:t>771</x:t>
   </x:si>
   <x:si>
-    <x:t>1356</x:t>
+    <x:t>1354</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
@@ -706,7 +712,7 @@
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2726</x:t>
+    <x:t>2724</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2776,21 +2782,21 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2805,18 +2811,18 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>129</x:v>
@@ -2834,21 +2840,21 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2860,15 +2866,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
@@ -2877,7 +2883,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>153</x:v>
@@ -2889,24 +2895,24 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>187</x:v>
@@ -2921,12 +2927,12 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2935,56 +2941,56 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
@@ -2993,7 +2999,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>148</x:v>
@@ -3008,36 +3014,36 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -136,10 +136,10 @@
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>1430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14964</x:t>
+    <x:t>1431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14965</x:t>
   </x:si>
   <x:si>
     <x:t>938</x:t>
@@ -178,10 +178,10 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>1750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17192</x:t>
+    <x:t>1751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17193</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -241,7 +241,7 @@
     <x:t>Counterfeiting/Forgery</x:t>
   </x:si>
   <x:si>
-    <x:t>369</x:t>
+    <x:t>370</x:t>
   </x:si>
   <x:si>
     <x:t>153</x:t>
@@ -250,19 +250,19 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>646</x:t>
+    <x:t>647</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>374</x:t>
+    <x:t>375</x:t>
   </x:si>
   <x:si>
     <x:t>155</x:t>
   </x:si>
   <x:si>
-    <x:t>653</x:t>
+    <x:t>654</x:t>
   </x:si>
   <x:si>
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
@@ -487,7 +487,7 @@
     <x:t>7849</x:t>
   </x:si>
   <x:si>
-    <x:t>5167</x:t>
+    <x:t>5168</x:t>
   </x:si>
   <x:si>
     <x:t>244</x:t>
@@ -502,7 +502,7 @@
     <x:t>1326</x:t>
   </x:si>
   <x:si>
-    <x:t>15390</x:t>
+    <x:t>15391</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -520,7 +520,7 @@
     <x:t>8550</x:t>
   </x:si>
   <x:si>
-    <x:t>5854</x:t>
+    <x:t>5855</x:t>
   </x:si>
   <x:si>
     <x:t>283</x:t>
@@ -532,7 +532,7 @@
     <x:t>1507</x:t>
   </x:si>
   <x:si>
-    <x:t>17036</x:t>
+    <x:t>17037</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -142,7 +142,7 @@
     <x:t>14965</x:t>
   </x:si>
   <x:si>
-    <x:t>938</x:t>
+    <x:t>939</x:t>
   </x:si>
   <x:si>
     <x:t>777</x:t>
@@ -160,10 +160,10 @@
     <x:t>320</x:t>
   </x:si>
   <x:si>
-    <x:t>2228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8748</x:t>
+    <x:t>2229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8749</x:t>
   </x:si>
   <x:si>
     <x:t>5435</x:t>
@@ -181,7 +181,7 @@
     <x:t>1751</x:t>
   </x:si>
   <x:si>
-    <x:t>17193</x:t>
+    <x:t>17194</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -319,25 +319,25 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2895</x:t>
+    <x:t>5663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2896</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
   </x:si>
   <x:si>
-    <x:t>651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>318</x:t>
+    <x:t>653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -346,306 +346,309 @@
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>588</x:t>
+    <x:t>589</x:t>
   </x:si>
   <x:si>
     <x:t>5982</x:t>
   </x:si>
   <x:si>
-    <x:t>2971</x:t>
+    <x:t>2972</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
   </x:si>
   <x:si>
+    <x:t>688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
     <x:t>686</x:t>
   </x:si>
   <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2658</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
     <x:t>505</x:t>
   </x:si>
   <x:si>
@@ -694,25 +697,25 @@
     <x:t>2378</x:t>
   </x:si>
   <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
     <x:t>213</x:t>
   </x:si>
   <x:si>
-    <x:t>346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>771</x:t>
+    <x:t>348</x:t>
   </x:si>
   <x:si>
     <x:t>1354</x:t>
   </x:si>
   <x:si>
-    <x:t>74</x:t>
+    <x:t>75</x:t>
   </x:si>
   <x:si>
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2724</x:t>
+    <x:t>2726</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2880,10 +2883,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>153</x:v>
@@ -2895,10 +2898,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2909,10 +2912,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>187</x:v>
@@ -2927,7 +2930,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2941,10 +2944,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>203</x:v>
@@ -2953,59 +2956,59 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>28</x:v>
@@ -3014,36 +3017,36 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -700,13 +700,10 @@
     <x:t>73</x:t>
   </x:si>
   <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1354</x:t>
+    <x:t>349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1355</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
@@ -715,7 +712,7 @@
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2726</x:t>
+    <x:t>2727</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3002,7 +2999,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>148</x:v>
@@ -3017,7 +3014,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -3031,22 +3028,22 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="I67" s="1" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="I67" s="1" t="s">
-        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,7 +121,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7810</x:t>
+    <x:t>7809</x:t>
   </x:si>
   <x:si>
     <x:t>4658</x:t>
@@ -139,7 +139,7 @@
     <x:t>1431</x:t>
   </x:si>
   <x:si>
-    <x:t>14965</x:t>
+    <x:t>14964</x:t>
   </x:si>
   <x:si>
     <x:t>939</x:t>
@@ -163,7 +163,7 @@
     <x:t>2229</x:t>
   </x:si>
   <x:si>
-    <x:t>8749</x:t>
+    <x:t>8748</x:t>
   </x:si>
   <x:si>
     <x:t>5435</x:t>
@@ -181,7 +181,7 @@
     <x:t>1751</x:t>
   </x:si>
   <x:si>
-    <x:t>17194</x:t>
+    <x:t>17193</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -292,318 +292,324 @@
     <x:t>222</x:t>
   </x:si>
   <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
     <x:t>120</x:t>
   </x:si>
   <x:si>
-    <x:t>438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2896</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1853</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>829</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2657</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
     <x:t>570</x:t>
   </x:si>
   <x:si>
@@ -688,13 +694,13 @@
     <x:t>1141</x:t>
   </x:si>
   <x:si>
-    <x:t>69</x:t>
+    <x:t>70</x:t>
   </x:si>
   <x:si>
     <x:t>401</x:t>
   </x:si>
   <x:si>
-    <x:t>2378</x:t>
+    <x:t>2379</x:t>
   </x:si>
   <x:si>
     <x:t>73</x:t>
@@ -706,13 +712,10 @@
     <x:t>1355</x:t>
   </x:si>
   <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2727</x:t>
+    <x:t>2728</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1706,10 +1709,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1720,45 +1723,45 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>30</x:v>
@@ -1772,7 +1775,7 @@
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>17</x:v>
@@ -1801,7 +1804,7 @@
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>18</x:v>
@@ -1987,7 +1990,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
         <x:v>109</x:v>
@@ -2724,7 +2727,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2738,13 +2741,13 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>14</x:v>
@@ -2764,16 +2767,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E58" s="1" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="E58" s="1" t="s">
-        <x:v>195</x:v>
-      </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
@@ -2782,21 +2785,21 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2811,18 +2814,18 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>129</x:v>
@@ -2840,21 +2843,21 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2866,24 +2869,24 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>153</x:v>
@@ -2895,24 +2898,24 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>187</x:v>
@@ -2924,15 +2927,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2941,65 +2944,65 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>148</x:v>
@@ -3014,12 +3017,12 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
@@ -3028,22 +3031,22 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -124,7 +124,7 @@
     <x:t>7809</x:t>
   </x:si>
   <x:si>
-    <x:t>4658</x:t>
+    <x:t>4659</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -136,16 +136,16 @@
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>1431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14964</x:t>
+    <x:t>1433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14967</x:t>
   </x:si>
   <x:si>
     <x:t>939</x:t>
   </x:si>
   <x:si>
-    <x:t>777</x:t>
+    <x:t>778</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
@@ -160,13 +160,13 @@
     <x:t>320</x:t>
   </x:si>
   <x:si>
-    <x:t>2229</x:t>
+    <x:t>2230</x:t>
   </x:si>
   <x:si>
     <x:t>8748</x:t>
   </x:si>
   <x:si>
-    <x:t>5435</x:t>
+    <x:t>5437</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -178,10 +178,10 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>1751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17193</x:t>
+    <x:t>1753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17197</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -322,10 +322,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2896</x:t>
+    <x:t>5661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2895</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -334,7 +334,7 @@
     <x:t>1709</x:t>
   </x:si>
   <x:si>
-    <x:t>11146</x:t>
+    <x:t>11144</x:t>
   </x:si>
   <x:si>
     <x:t>319</x:t>
@@ -349,10 +349,10 @@
     <x:t>589</x:t>
   </x:si>
   <x:si>
-    <x:t>5981</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2972</x:t>
+    <x:t>5980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2971</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -367,7 +367,7 @@
     <x:t>1853</x:t>
   </x:si>
   <x:si>
-    <x:t>11735</x:t>
+    <x:t>11733</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -484,7 +484,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7849</x:t>
+    <x:t>7851</x:t>
   </x:si>
   <x:si>
     <x:t>5168</x:t>
@@ -502,7 +502,7 @@
     <x:t>1326</x:t>
   </x:si>
   <x:si>
-    <x:t>15391</x:t>
+    <x:t>15393</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -517,7 +517,7 @@
     <x:t>1646</x:t>
   </x:si>
   <x:si>
-    <x:t>8550</x:t>
+    <x:t>8552</x:t>
   </x:si>
   <x:si>
     <x:t>5855</x:t>
@@ -532,7 +532,7 @@
     <x:t>1507</x:t>
   </x:si>
   <x:si>
-    <x:t>17037</x:t>
+    <x:t>17039</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -614,9 +614,6 @@
   </x:si>
   <x:si>
     <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>778</x:t>
   </x:si>
   <x:si>
     <x:t>Sex Offenses</x:t>
@@ -2785,21 +2782,21 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
         <x:v>202</x:v>
-      </x:c>
-      <x:c r="D59" s="1" t="s">
-        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2814,18 +2811,18 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>129</x:v>
@@ -2843,21 +2840,21 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>207</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="s">
-        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2869,24 +2866,24 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="I61" s="1" t="s">
-        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
         <x:v>212</x:v>
-      </x:c>
-      <x:c r="D62" s="1" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>153</x:v>
@@ -2898,24 +2895,24 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
         <x:v>216</x:v>
-      </x:c>
-      <x:c r="D63" s="1" t="s">
-        <x:v>217</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>187</x:v>
@@ -2930,12 +2927,12 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2944,65 +2941,65 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="E64" s="1" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>220</x:v>
-      </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="s">
         <x:v>221</x:v>
-      </x:c>
-      <x:c r="I64" s="1" t="s">
-        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>224</x:v>
-      </x:c>
-      <x:c r="D65" s="1" t="s">
-        <x:v>225</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>148</x:v>
@@ -3017,12 +3014,12 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
@@ -3031,7 +3028,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
@@ -3043,10 +3040,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="I67" s="1" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="I67" s="1" t="s">
-        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -268,7 +268,7 @@
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>880</x:t>
+    <x:t>882</x:t>
   </x:si>
   <x:si>
     <x:t>440</x:t>
@@ -286,7 +286,7 @@
     <x:t>198</x:t>
   </x:si>
   <x:si>
-    <x:t>1630</x:t>
+    <x:t>1632</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -301,7 +301,7 @@
     <x:t>438</x:t>
   </x:si>
   <x:si>
-    <x:t>1102</x:t>
+    <x:t>1104</x:t>
   </x:si>
   <x:si>
     <x:t>561</x:t>
@@ -316,7 +316,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>2068</x:t>
+    <x:t>2070</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,10 +121,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4659</x:t>
+    <x:t>7808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4661</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -139,7 +139,7 @@
     <x:t>1433</x:t>
   </x:si>
   <x:si>
-    <x:t>14967</x:t>
+    <x:t>14968</x:t>
   </x:si>
   <x:si>
     <x:t>939</x:t>
@@ -163,10 +163,10 @@
     <x:t>2230</x:t>
   </x:si>
   <x:si>
-    <x:t>8748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5437</x:t>
+    <x:t>8747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5439</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -181,7 +181,7 @@
     <x:t>1753</x:t>
   </x:si>
   <x:si>
-    <x:t>17197</x:t>
+    <x:t>17198</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -325,7 +325,7 @@
     <x:t>5661</x:t>
   </x:si>
   <x:si>
-    <x:t>2895</x:t>
+    <x:t>2894</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -334,7 +334,7 @@
     <x:t>1709</x:t>
   </x:si>
   <x:si>
-    <x:t>11144</x:t>
+    <x:t>11143</x:t>
   </x:si>
   <x:si>
     <x:t>319</x:t>
@@ -352,7 +352,7 @@
     <x:t>5980</x:t>
   </x:si>
   <x:si>
-    <x:t>2971</x:t>
+    <x:t>2970</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -367,7 +367,7 @@
     <x:t>1853</x:t>
   </x:si>
   <x:si>
-    <x:t>11733</x:t>
+    <x:t>11732</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -688,7 +688,7 @@
     <x:t>699</x:t>
   </x:si>
   <x:si>
-    <x:t>1141</x:t>
+    <x:t>1142</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
@@ -697,7 +697,7 @@
     <x:t>401</x:t>
   </x:si>
   <x:si>
-    <x:t>2379</x:t>
+    <x:t>2380</x:t>
   </x:si>
   <x:si>
     <x:t>73</x:t>
@@ -706,13 +706,13 @@
     <x:t>349</x:t>
   </x:si>
   <x:si>
-    <x:t>1355</x:t>
+    <x:t>1356</x:t>
   </x:si>
   <x:si>
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2728</x:t>
+    <x:t>2729</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,10 +121,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7808</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4661</x:t>
+    <x:t>7807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4662</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -163,10 +163,10 @@
     <x:t>2230</x:t>
   </x:si>
   <x:si>
-    <x:t>8747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5439</x:t>
+    <x:t>8746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5440</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -193,7 +193,7 @@
     <x:t>735</x:t>
   </x:si>
   <x:si>
-    <x:t>448</x:t>
+    <x:t>447</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
@@ -205,7 +205,7 @@
     <x:t>123</x:t>
   </x:si>
   <x:si>
-    <x:t>1437</x:t>
+    <x:t>1436</x:t>
   </x:si>
   <x:si>
     <x:t>112</x:t>
@@ -223,7 +223,7 @@
     <x:t>847</x:t>
   </x:si>
   <x:si>
-    <x:t>509</x:t>
+    <x:t>508</x:t>
   </x:si>
   <x:si>
     <x:t>36</x:t>
@@ -235,7 +235,7 @@
     <x:t>139</x:t>
   </x:si>
   <x:si>
-    <x:t>1642</x:t>
+    <x:t>1641</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -268,7 +268,7 @@
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>882</x:t>
+    <x:t>883</x:t>
   </x:si>
   <x:si>
     <x:t>440</x:t>
@@ -286,7 +286,7 @@
     <x:t>198</x:t>
   </x:si>
   <x:si>
-    <x:t>1632</x:t>
+    <x:t>1633</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -301,7 +301,7 @@
     <x:t>438</x:t>
   </x:si>
   <x:si>
-    <x:t>1104</x:t>
+    <x:t>1105</x:t>
   </x:si>
   <x:si>
     <x:t>561</x:t>
@@ -316,7 +316,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>2070</x:t>
+    <x:t>2071</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
@@ -331,13 +331,13 @@
     <x:t>204</x:t>
   </x:si>
   <x:si>
+    <x:t>653</x:t>
+  </x:si>
+  <x:si>
     <x:t>1709</x:t>
   </x:si>
   <x:si>
-    <x:t>11143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319</x:t>
+    <x:t>11142</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -346,10 +346,10 @@
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5980</x:t>
+    <x:t>590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5981</x:t>
   </x:si>
   <x:si>
     <x:t>2970</x:t>
@@ -358,7 +358,7 @@
     <x:t>218</x:t>
   </x:si>
   <x:si>
-    <x:t>689</x:t>
+    <x:t>688</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -1758,16 +1758,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1778,7 +1778,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
         <x:v>108</x:v>
@@ -2741,7 +2741,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>196</x:v>
@@ -2750,7 +2750,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
         <x:v>113</x:v>
@@ -2770,7 +2770,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
         <x:v>199</x:v>
@@ -2779,7 +2779,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
         <x:v>43</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -325,7 +325,7 @@
     <x:t>5661</x:t>
   </x:si>
   <x:si>
-    <x:t>2894</x:t>
+    <x:t>2895</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -334,7 +334,7 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>1709</x:t>
+    <x:t>1708</x:t>
   </x:si>
   <x:si>
     <x:t>11142</x:t>
@@ -352,7 +352,7 @@
     <x:t>5981</x:t>
   </x:si>
   <x:si>
-    <x:t>2970</x:t>
+    <x:t>2971</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -364,7 +364,7 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>1853</x:t>
+    <x:t>1852</x:t>
   </x:si>
   <x:si>
     <x:t>11732</x:t>
@@ -397,10 +397,7 @@
     <x:t>829</x:t>
   </x:si>
   <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2534</x:t>
+    <x:t>2533</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
@@ -424,10 +421,10 @@
     <x:t>148</x:t>
   </x:si>
   <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2657</x:t>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2656</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -1996,10 +1993,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I31" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="I31" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -2010,10 +2007,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>88</x:v>
@@ -2025,7 +2022,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
         <x:v>62</x:v>
@@ -2039,30 +2036,30 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="E33" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I33" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="I33" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>10</x:v>
@@ -2091,7 +2088,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>17</x:v>
@@ -2120,7 +2117,7 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>18</x:v>
@@ -2149,22 +2146,22 @@
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>14</x:v>
@@ -2173,12 +2170,12 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>17</x:v>
@@ -2207,36 +2204,36 @@
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>143</x:v>
-      </x:c>
-      <x:c r="D39" s="1" t="s">
-        <x:v>144</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I39" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="I39" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>10</x:v>
@@ -2245,7 +2242,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>46</x:v>
@@ -2265,7 +2262,7 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>18</x:v>
@@ -2274,7 +2271,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>46</x:v>
@@ -2294,16 +2291,16 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>46</x:v>
@@ -2318,12 +2315,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>17</x:v>
@@ -2352,16 +2349,16 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>46</x:v>
@@ -2376,143 +2373,143 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>161</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>163</x:v>
-      </x:c>
-      <x:c r="D46" s="1" t="s">
-        <x:v>164</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G46" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H46" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>165</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H46" s="1" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="D47" s="1" t="s">
+      <x:c r="E47" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="E47" s="1" t="s">
+      <x:c r="F47" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="F47" s="1" t="s">
+      <x:c r="G47" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H47" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="G47" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="H47" s="1" t="s">
+      <x:c r="I47" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="I47" s="1" t="s">
-        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="s">
+      <x:c r="F48" s="1" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="F48" s="1" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="s">
         <x:v>177</x:v>
-      </x:c>
-      <x:c r="I48" s="1" t="s">
-        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>14</x:v>
@@ -2521,21 +2518,21 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="D50" s="1" t="s">
-        <x:v>182</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>53</x:v>
@@ -2550,18 +2547,18 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>79</x:v>
@@ -2584,7 +2581,7 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>17</x:v>
@@ -2613,16 +2610,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
         <x:v>186</x:v>
-      </x:c>
-      <x:c r="D53" s="1" t="s">
-        <x:v>187</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>24</x:v>
@@ -2634,21 +2631,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="I53" s="1" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="I53" s="1" t="s">
-        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>115</x:v>
@@ -2671,13 +2668,13 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
         <x:v>115</x:v>
@@ -2700,51 +2697,51 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="I56" s="1" t="s">
         <x:v>193</x:v>
-      </x:c>
-      <x:c r="I56" s="1" t="s">
-        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E57" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F57" s="1" t="s">
         <x:v>195</x:v>
-      </x:c>
-      <x:c r="E57" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="F57" s="1" t="s">
-        <x:v>196</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>14</x:v>
@@ -2758,28 +2755,28 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
         <x:v>197</x:v>
-      </x:c>
-      <x:c r="D58" s="1" t="s">
-        <x:v>198</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
         <x:v>43</x:v>
@@ -2787,16 +2784,16 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="D59" s="1" t="s">
-        <x:v>202</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2811,21 +2808,21 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
         <x:v>27</x:v>
@@ -2837,24 +2834,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="s">
-        <x:v>207</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2866,27 +2863,27 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="I61" s="1" t="s">
-        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="D62" s="1" t="s">
-        <x:v>212</x:v>
-      </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>108</x:v>
@@ -2895,44 +2892,44 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="E63" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="G63" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H63" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="I63" s="1" t="s">
         <x:v>216</x:v>
-      </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="F63" s="1" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="G63" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H63" s="1" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2941,68 +2938,68 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E64" s="1" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>219</x:v>
-      </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="s">
         <x:v>220</x:v>
-      </x:c>
-      <x:c r="I64" s="1" t="s">
-        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>223</x:v>
-      </x:c>
-      <x:c r="D65" s="1" t="s">
-        <x:v>224</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
         <x:v>46</x:v>
@@ -3014,21 +3011,21 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
@@ -3040,10 +3037,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="I67" s="1" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="I67" s="1" t="s">
-        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -325,7 +325,7 @@
     <x:t>5661</x:t>
   </x:si>
   <x:si>
-    <x:t>2895</x:t>
+    <x:t>2893</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -337,7 +337,7 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11142</x:t>
+    <x:t>11140</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -352,7 +352,7 @@
     <x:t>5981</x:t>
   </x:si>
   <x:si>
-    <x:t>2971</x:t>
+    <x:t>2969</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -367,7 +367,7 @@
     <x:t>1852</x:t>
   </x:si>
   <x:si>
-    <x:t>11732</x:t>
+    <x:t>11730</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -685,7 +685,7 @@
     <x:t>699</x:t>
   </x:si>
   <x:si>
-    <x:t>1142</x:t>
+    <x:t>1143</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
@@ -694,7 +694,7 @@
     <x:t>401</x:t>
   </x:si>
   <x:si>
-    <x:t>2380</x:t>
+    <x:t>2381</x:t>
   </x:si>
   <x:si>
     <x:t>73</x:t>
@@ -703,13 +703,13 @@
     <x:t>349</x:t>
   </x:si>
   <x:si>
-    <x:t>1356</x:t>
+    <x:t>1357</x:t>
   </x:si>
   <x:si>
     <x:t>436</x:t>
   </x:si>
   <x:si>
-    <x:t>2729</x:t>
+    <x:t>2730</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -124,7 +124,7 @@
     <x:t>7807</x:t>
   </x:si>
   <x:si>
-    <x:t>4662</x:t>
+    <x:t>4663</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -139,7 +139,7 @@
     <x:t>1433</x:t>
   </x:si>
   <x:si>
-    <x:t>14968</x:t>
+    <x:t>14969</x:t>
   </x:si>
   <x:si>
     <x:t>939</x:t>
@@ -166,7 +166,7 @@
     <x:t>8746</x:t>
   </x:si>
   <x:si>
-    <x:t>5440</x:t>
+    <x:t>5441</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -181,7 +181,7 @@
     <x:t>1753</x:t>
   </x:si>
   <x:si>
-    <x:t>17198</x:t>
+    <x:t>17199</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -190,7 +190,7 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
-    <x:t>735</x:t>
+    <x:t>736</x:t>
   </x:si>
   <x:si>
     <x:t>447</x:t>
@@ -205,7 +205,7 @@
     <x:t>123</x:t>
   </x:si>
   <x:si>
-    <x:t>1436</x:t>
+    <x:t>1437</x:t>
   </x:si>
   <x:si>
     <x:t>112</x:t>
@@ -220,7 +220,7 @@
     <x:t>205</x:t>
   </x:si>
   <x:si>
-    <x:t>847</x:t>
+    <x:t>848</x:t>
   </x:si>
   <x:si>
     <x:t>508</x:t>
@@ -235,7 +235,7 @@
     <x:t>139</x:t>
   </x:si>
   <x:si>
-    <x:t>1641</x:t>
+    <x:t>1642</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -322,7 +322,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5661</x:t>
+    <x:t>5660</x:t>
   </x:si>
   <x:si>
     <x:t>2893</x:t>
@@ -337,7 +337,7 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11140</x:t>
+    <x:t>11139</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -349,7 +349,7 @@
     <x:t>590</x:t>
   </x:si>
   <x:si>
-    <x:t>5981</x:t>
+    <x:t>5980</x:t>
   </x:si>
   <x:si>
     <x:t>2969</x:t>
@@ -367,7 +367,7 @@
     <x:t>1852</x:t>
   </x:si>
   <x:si>
-    <x:t>11730</x:t>
+    <x:t>11729</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -484,7 +484,7 @@
     <x:t>7851</x:t>
   </x:si>
   <x:si>
-    <x:t>5168</x:t>
+    <x:t>5169</x:t>
   </x:si>
   <x:si>
     <x:t>244</x:t>
@@ -499,7 +499,7 @@
     <x:t>1326</x:t>
   </x:si>
   <x:si>
-    <x:t>15393</x:t>
+    <x:t>15394</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -517,7 +517,7 @@
     <x:t>8552</x:t>
   </x:si>
   <x:si>
-    <x:t>5855</x:t>
+    <x:t>5856</x:t>
   </x:si>
   <x:si>
     <x:t>283</x:t>
@@ -529,7 +529,7 @@
     <x:t>1507</x:t>
   </x:si>
   <x:si>
-    <x:t>17039</x:t>
+    <x:t>17040</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -616,13 +616,13 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>450</x:t>
+    <x:t>452</x:t>
   </x:si>
   <x:si>
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>840</x:t>
+    <x:t>842</x:t>
   </x:si>
   <x:si>
     <x:t>86</x:t>
@@ -631,7 +631,7 @@
     <x:t>151</x:t>
   </x:si>
   <x:si>
-    <x:t>536</x:t>
+    <x:t>538</x:t>
   </x:si>
   <x:si>
     <x:t>239</x:t>
@@ -640,7 +640,7 @@
     <x:t>165</x:t>
   </x:si>
   <x:si>
-    <x:t>991</x:t>
+    <x:t>993</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -394,10 +394,10 @@
     <x:t>1182</x:t>
   </x:si>
   <x:si>
-    <x:t>829</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2533</x:t>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2534</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
@@ -412,7 +412,7 @@
     <x:t>1215</x:t>
   </x:si>
   <x:si>
-    <x:t>900</x:t>
+    <x:t>901</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
@@ -424,7 +424,7 @@
     <x:t>333</x:t>
   </x:si>
   <x:si>
-    <x:t>2656</x:t>
+    <x:t>2657</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,10 +121,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4663</x:t>
+    <x:t>7809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4662</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -139,490 +139,493 @@
     <x:t>1433</x:t>
   </x:si>
   <x:si>
-    <x:t>14969</x:t>
+    <x:t>14970</x:t>
   </x:si>
   <x:si>
     <x:t>939</x:t>
   </x:si>
   <x:si>
+    <x:t>777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
     <x:t>778</x:t>
   </x:si>
   <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1753</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>447</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>647</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1633</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2657</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7851</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>452</x:t>
+    <x:t>453</x:t>
   </x:si>
   <x:si>
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>842</x:t>
+    <x:t>843</x:t>
   </x:si>
   <x:si>
     <x:t>86</x:t>
@@ -631,7 +634,7 @@
     <x:t>151</x:t>
   </x:si>
   <x:si>
-    <x:t>538</x:t>
+    <x:t>539</x:t>
   </x:si>
   <x:si>
     <x:t>239</x:t>
@@ -640,7 +643,7 @@
     <x:t>165</x:t>
   </x:si>
   <x:si>
-    <x:t>993</x:t>
+    <x:t>994</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -1755,10 +1758,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
         <x:v>106</x:v>
@@ -1816,18 +1819,18 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H25" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="H25" s="1" t="s">
+      <x:c r="I25" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="I25" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>10</x:v>
@@ -1836,7 +1839,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>79</x:v>
@@ -1851,12 +1854,12 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>17</x:v>
@@ -1885,16 +1888,16 @@
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="D28" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
         <x:v>79</x:v>
@@ -2167,7 +2170,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
         <x:v>141</x:v>
@@ -2242,7 +2245,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>46</x:v>
@@ -2271,7 +2274,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>46</x:v>
@@ -2291,16 +2294,16 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>150</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>46</x:v>
@@ -2315,12 +2318,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>17</x:v>
@@ -2349,16 +2352,16 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>46</x:v>
@@ -2373,56 +2376,56 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F46" s="1" t="s">
         <x:v>163</x:v>
-      </x:c>
-      <x:c r="E46" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="s">
-        <x:v>164</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>14</x:v>
@@ -2431,108 +2434,108 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="D47" s="1" t="s">
+      <x:c r="E47" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="E47" s="1" t="s">
+      <x:c r="F47" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="F47" s="1" t="s">
+      <x:c r="G47" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="H47" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="G47" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="H47" s="1" t="s">
+      <x:c r="I47" s="1" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="I47" s="1" t="s">
-        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="s">
+      <x:c r="F48" s="1" t="s">
         <x:v>174</x:v>
-      </x:c>
-      <x:c r="F48" s="1" t="s">
-        <x:v>175</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="s">
         <x:v>176</x:v>
-      </x:c>
-      <x:c r="I48" s="1" t="s">
-        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
         <x:v>180</x:v>
-      </x:c>
-      <x:c r="D50" s="1" t="s">
-        <x:v>181</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>53</x:v>
@@ -2544,24 +2547,24 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
         <x:v>46</x:v>
@@ -2576,12 +2579,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>17</x:v>
@@ -2610,7 +2613,7 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>18</x:v>
@@ -2619,7 +2622,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>24</x:v>
@@ -2631,24 +2634,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="I53" s="1" t="s">
         <x:v>187</x:v>
-      </x:c>
-      <x:c r="I53" s="1" t="s">
-        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>88</x:v>
@@ -2668,16 +2671,16 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>88</x:v>
@@ -2697,7 +2700,7 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
@@ -2706,33 +2709,33 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="I56" s="1" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="I56" s="1" t="s">
-        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
         <x:v>194</x:v>
@@ -2755,7 +2758,7 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>18</x:v>
@@ -2776,24 +2779,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2808,18 +2811,18 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>128</x:v>
@@ -2834,24 +2837,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2863,27 +2866,27 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>108</x:v>
@@ -2892,30 +2895,30 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
@@ -2924,12 +2927,12 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2938,68 +2941,68 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
         <x:v>46</x:v>
@@ -3011,21 +3014,21 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
@@ -3037,10 +3040,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -322,7 +322,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5661</x:t>
+    <x:t>5662</x:t>
   </x:si>
   <x:si>
     <x:t>2892</x:t>
@@ -337,7 +337,7 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11139</x:t>
+    <x:t>11140</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -349,7 +349,7 @@
     <x:t>590</x:t>
   </x:si>
   <x:si>
-    <x:t>5981</x:t>
+    <x:t>5982</x:t>
   </x:si>
   <x:si>
     <x:t>2968</x:t>
@@ -364,7 +364,7 @@
     <x:t>1852</x:t>
   </x:si>
   <x:si>
-    <x:t>11729</x:t>
+    <x:t>11730</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -532,7 +532,7 @@
     <x:t>Motor Vehicle Theft</x:t>
   </x:si>
   <x:si>
-    <x:t>170</x:t>
+    <x:t>171</x:t>
   </x:si>
   <x:si>
     <x:t>34</x:t>
@@ -544,7 +544,7 @@
     <x:t>62</x:t>
   </x:si>
   <x:si>
-    <x:t>594</x:t>
+    <x:t>595</x:t>
   </x:si>
   <x:si>
     <x:t>182</x:t>
@@ -556,10 +556,10 @@
     <x:t>332</x:t>
   </x:si>
   <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
+    <x:t>353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>866</x:t>
   </x:si>
   <x:si>
     <x:t>Pornography/Obscene Material</x:t>
@@ -652,13 +652,13 @@
     <x:t>686</x:t>
   </x:si>
   <x:si>
-    <x:t>505</x:t>
+    <x:t>506</x:t>
   </x:si>
   <x:si>
     <x:t>168</x:t>
   </x:si>
   <x:si>
-    <x:t>1490</x:t>
+    <x:t>1491</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -670,7 +670,7 @@
     <x:t>302</x:t>
   </x:si>
   <x:si>
-    <x:t>719</x:t>
+    <x:t>720</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
@@ -679,7 +679,7 @@
     <x:t>209</x:t>
   </x:si>
   <x:si>
-    <x:t>1792</x:t>
+    <x:t>1793</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,10 +121,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4662</x:t>
+    <x:t>7810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4661</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -163,10 +163,10 @@
     <x:t>2229</x:t>
   </x:si>
   <x:si>
-    <x:t>8748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5439</x:t>
+    <x:t>8749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5438</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -325,7 +325,7 @@
     <x:t>5662</x:t>
   </x:si>
   <x:si>
-    <x:t>2892</x:t>
+    <x:t>2891</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -337,7 +337,10 @@
     <x:t>1708</x:t>
   </x:si>
   <x:si>
-    <x:t>11140</x:t>
+    <x:t>11139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -346,13 +349,13 @@
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2968</x:t>
+    <x:t>591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2967</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -1778,10 +1781,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
         <x:v>32</x:v>
@@ -1793,10 +1796,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1807,30 +1810,30 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>10</x:v>
@@ -1839,7 +1842,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>79</x:v>
@@ -1854,12 +1857,12 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>17</x:v>
@@ -1888,16 +1891,16 @@
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
         <x:v>79</x:v>
@@ -1912,12 +1915,12 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I28" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>10</x:v>
@@ -1946,7 +1949,7 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>18</x:v>
@@ -1975,22 +1978,22 @@
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>79</x:v>
@@ -1999,21 +2002,21 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>88</x:v>
@@ -2025,7 +2028,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
         <x:v>62</x:v>
@@ -2033,36 +2036,36 @@
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I33" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>10</x:v>
@@ -2091,7 +2094,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>17</x:v>
@@ -2120,7 +2123,7 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>18</x:v>
@@ -2149,36 +2152,36 @@
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>17</x:v>
@@ -2207,36 +2210,36 @@
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>10</x:v>
@@ -2265,7 +2268,7 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>18</x:v>
@@ -2294,16 +2297,16 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>46</x:v>
@@ -2318,12 +2321,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>17</x:v>
@@ -2352,16 +2355,16 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>46</x:v>
@@ -2376,137 +2379,137 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>27</x:v>
@@ -2518,24 +2521,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>53</x:v>
@@ -2547,21 +2550,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>46</x:v>
@@ -2579,12 +2582,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>17</x:v>
@@ -2613,16 +2616,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>24</x:v>
@@ -2634,24 +2637,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>88</x:v>
@@ -2671,16 +2674,16 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>88</x:v>
@@ -2700,51 +2703,51 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>14</x:v>
@@ -2753,50 +2756,50 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>30</x:v>
@@ -2811,21 +2814,21 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
         <x:v>27</x:v>
@@ -2837,24 +2840,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>12</x:v>
@@ -2866,73 +2869,73 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>18</x:v>
@@ -2941,65 +2944,65 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>105</x:v>
@@ -3014,36 +3017,36 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -121,10 +121,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4661</x:t>
+    <x:t>7811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4660</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -163,10 +163,10 @@
     <x:t>2229</x:t>
   </x:si>
   <x:si>
-    <x:t>8749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5438</x:t>
+    <x:t>8750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5437</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -322,7 +322,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>5662</x:t>
+    <x:t>5663</x:t>
   </x:si>
   <x:si>
     <x:t>2891</x:t>
@@ -334,10 +334,10 @@
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>1708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11139</x:t>
+    <x:t>1709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11141</x:t>
   </x:si>
   <x:si>
     <x:t>321</x:t>
@@ -352,7 +352,7 @@
     <x:t>591</x:t>
   </x:si>
   <x:si>
-    <x:t>5983</x:t>
+    <x:t>5984</x:t>
   </x:si>
   <x:si>
     <x:t>2967</x:t>
@@ -364,10 +364,10 @@
     <x:t>689</x:t>
   </x:si>
   <x:si>
-    <x:t>1852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11730</x:t>
+    <x:t>1853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11732</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -397,10 +397,10 @@
     <x:t>1182</x:t>
   </x:si>
   <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2534</x:t>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2535</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
@@ -415,7 +415,7 @@
     <x:t>1215</x:t>
   </x:si>
   <x:si>
-    <x:t>901</x:t>
+    <x:t>902</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
@@ -427,7 +427,7 @@
     <x:t>333</x:t>
   </x:si>
   <x:si>
-    <x:t>2657</x:t>
+    <x:t>2658</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -481,7 +481,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7851</x:t>
+    <x:t>7853</x:t>
   </x:si>
   <x:si>
     <x:t>5169</x:t>
@@ -499,7 +499,7 @@
     <x:t>1326</x:t>
   </x:si>
   <x:si>
-    <x:t>15394</x:t>
+    <x:t>15396</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -514,7 +514,7 @@
     <x:t>1646</x:t>
   </x:si>
   <x:si>
-    <x:t>8552</x:t>
+    <x:t>8554</x:t>
   </x:si>
   <x:si>
     <x:t>5856</x:t>
@@ -529,7 +529,7 @@
     <x:t>1507</x:t>
   </x:si>
   <x:si>
-    <x:t>17040</x:t>
+    <x:t>17042</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
